--- a/mereni/8x1_R_N_3_25/8x1_R_N_3_25_results.xlsx
+++ b/mereni/8x1_R_N_3_25/8x1_R_N_3_25_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notebook\Desktop\Eyetracking\mereni\8x1_R_N_3_25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,17 +120,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,18 +421,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="11" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -468,16 +485,16 @@
         <v>7.86989764584402</v>
       </c>
       <c r="F2">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G2">
-        <v>0.09930843240415932</v>
+        <v>9.9308432404159319E-2</v>
       </c>
       <c r="H2">
         <v>54.54545454545454</v>
       </c>
       <c r="I2">
-        <v>9.930843240415932</v>
+        <v>9.9308432404159319</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -489,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -506,28 +523,28 @@
         <v>2.43494882292201</v>
       </c>
       <c r="F3">
-        <v>0.5694483656818372</v>
+        <v>0.56944836568183721</v>
       </c>
       <c r="G3">
-        <v>0.030726060422963</v>
+        <v>3.0726060422963001E-2</v>
       </c>
       <c r="H3">
-        <v>56.94483656818372</v>
+        <v>56.944836568183717</v>
       </c>
       <c r="I3">
-        <v>3.0726060422963</v>
+        <v>3.0726060422963002</v>
       </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,22 +555,22 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11.6148351928655</v>
+        <v>11.614835192865501</v>
       </c>
       <c r="E4">
-        <v>7.198590513648185</v>
+        <v>7.1985905136481847</v>
       </c>
       <c r="F4">
-        <v>0.5279470542211588</v>
+        <v>0.52794705422115884</v>
       </c>
       <c r="G4">
-        <v>0.09083736175493617</v>
+        <v>9.0837361754936174E-2</v>
       </c>
       <c r="H4">
-        <v>52.79470542211588</v>
+        <v>52.794705422115882</v>
       </c>
       <c r="I4">
-        <v>9.083736175493618</v>
+        <v>9.0837361754936179</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -565,7 +582,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -582,16 +599,16 @@
         <v>2.43494882292201</v>
       </c>
       <c r="F5">
-        <v>0.5694483656818372</v>
+        <v>0.56944836568183721</v>
       </c>
       <c r="G5">
-        <v>0.030726060422963</v>
+        <v>3.0726060422963001E-2</v>
       </c>
       <c r="H5">
-        <v>56.94483656818372</v>
+        <v>56.944836568183717</v>
       </c>
       <c r="I5">
-        <v>3.0726060422963</v>
+        <v>3.0726060422963002</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
@@ -603,7 +620,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -638,10 +655,10 @@
         <v>0.38</v>
       </c>
       <c r="M6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -679,7 +696,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -711,13 +728,13 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>37.55</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="M8">
-        <v>169.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>96.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -752,10 +769,10 @@
         <v>9.69</v>
       </c>
       <c r="M9">
-        <v>36.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36.369999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -784,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -813,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -842,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -871,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -929,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -958,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1001,22 +1018,22 @@
         <v>10.57160529964397</v>
       </c>
       <c r="E18">
-        <v>0.2520613743614852</v>
+        <v>0.25206137436148518</v>
       </c>
       <c r="F18">
-        <v>0.4805275136201804</v>
+        <v>0.48052751362018042</v>
       </c>
       <c r="G18">
-        <v>0.003180704639874955</v>
+        <v>3.180704639874955E-3</v>
       </c>
       <c r="H18">
-        <v>48.05275136201804</v>
+        <v>48.052751362018043</v>
       </c>
       <c r="I18">
-        <v>0.3180704639874956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.31807046398749561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1030,22 +1047,22 @@
         <v>10.57160529964397</v>
       </c>
       <c r="E19">
-        <v>0.2520613743614852</v>
+        <v>0.25206137436148518</v>
       </c>
       <c r="F19">
-        <v>0.4805275136201804</v>
+        <v>0.48052751362018042</v>
       </c>
       <c r="G19">
-        <v>0.003180704639874955</v>
+        <v>3.180704639874955E-3</v>
       </c>
       <c r="H19">
-        <v>48.05275136201804</v>
+        <v>48.052751362018043</v>
       </c>
       <c r="I19">
-        <v>0.3180704639874956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.31807046398749561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1056,25 +1073,25 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>13.67719531491113</v>
+        <v>13.677195314911129</v>
       </c>
       <c r="E20">
         <v>1.042693415732693</v>
       </c>
       <c r="F20">
-        <v>0.6216906961323239</v>
+        <v>0.62169069613232386</v>
       </c>
       <c r="G20">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H20">
-        <v>62.16906961323239</v>
+        <v>62.169069613232388</v>
       </c>
       <c r="I20">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1085,25 +1102,25 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>13.67719531491113</v>
+        <v>13.677195314911129</v>
       </c>
       <c r="E21">
         <v>1.042693415732693</v>
       </c>
       <c r="F21">
-        <v>0.6216906961323239</v>
+        <v>0.62169069613232386</v>
       </c>
       <c r="G21">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H21">
-        <v>62.16906961323239</v>
+        <v>62.169069613232388</v>
       </c>
       <c r="I21">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1114,25 +1131,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.476738615606879</v>
+        <v>3.4767386156068789</v>
       </c>
       <c r="E22">
         <v>5.626831444689266</v>
       </c>
       <c r="F22">
-        <v>0.1580335734366763</v>
+        <v>0.15803357343667629</v>
       </c>
       <c r="G22">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H22">
         <v>15.80335734366763</v>
       </c>
       <c r="I22">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1143,25 +1160,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.476738615606879</v>
+        <v>3.4767386156068789</v>
       </c>
       <c r="E23">
         <v>5.626831444689266</v>
       </c>
       <c r="F23">
-        <v>0.1580335734366763</v>
+        <v>0.15803357343667629</v>
       </c>
       <c r="G23">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H23">
         <v>15.80335734366763</v>
       </c>
       <c r="I23">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1178,19 +1195,19 @@
         <v>5.626831444689266</v>
       </c>
       <c r="F24">
-        <v>0.02946870413003139</v>
+        <v>2.946870413003139E-2</v>
       </c>
       <c r="G24">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H24">
-        <v>2.946870413003139</v>
+        <v>2.9468704130031389</v>
       </c>
       <c r="I24">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1207,19 +1224,19 @@
         <v>5.626831444689266</v>
       </c>
       <c r="F25">
-        <v>0.02946870413003139</v>
+        <v>2.946870413003139E-2</v>
       </c>
       <c r="G25">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H25">
-        <v>2.946870413003139</v>
+        <v>2.9468704130031389</v>
       </c>
       <c r="I25">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1230,25 +1247,25 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E26">
         <v>3.835490763336352</v>
       </c>
       <c r="F26">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G26">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H26">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I26">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1259,25 +1276,25 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E27">
         <v>3.835490763336352</v>
       </c>
       <c r="F27">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G27">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H27">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I27">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1288,25 +1305,25 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E28">
         <v>3.835490763336352</v>
       </c>
       <c r="F28">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G28">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H28">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I28">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1317,25 +1334,25 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E29">
         <v>3.835490763336352</v>
       </c>
       <c r="F29">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G29">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H29">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I29">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1346,25 +1363,25 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E30">
         <v>3.835490763336352</v>
       </c>
       <c r="F30">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G30">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H30">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I30">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1378,22 +1395,22 @@
         <v>1.323343189192606</v>
       </c>
       <c r="E31">
-        <v>0.4324025369544557</v>
+        <v>0.43240253695445569</v>
       </c>
       <c r="F31">
-        <v>0.06015196314511845</v>
+        <v>6.0151963145118448E-2</v>
       </c>
       <c r="G31">
-        <v>0.005456388385839506</v>
+        <v>5.4563883858395057E-3</v>
       </c>
       <c r="H31">
-        <v>6.015196314511845</v>
+        <v>6.0151963145118454</v>
       </c>
       <c r="I31">
-        <v>0.5456388385839506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.54563883858395057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1407,22 +1424,22 @@
         <v>1.323343189192606</v>
       </c>
       <c r="E32">
-        <v>0.4324025369544557</v>
+        <v>0.43240253695445569</v>
       </c>
       <c r="F32">
-        <v>0.06015196314511845</v>
+        <v>6.0151963145118448E-2</v>
       </c>
       <c r="G32">
-        <v>0.005456388385839506</v>
+        <v>5.4563883858395057E-3</v>
       </c>
       <c r="H32">
-        <v>6.015196314511845</v>
+        <v>6.0151963145118454</v>
       </c>
       <c r="I32">
-        <v>0.5456388385839506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.54563883858395057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1436,22 +1453,22 @@
         <v>1.323343189192606</v>
       </c>
       <c r="E33">
-        <v>0.4324025369544557</v>
+        <v>0.43240253695445569</v>
       </c>
       <c r="F33">
-        <v>0.06015196314511845</v>
+        <v>6.0151963145118448E-2</v>
       </c>
       <c r="G33">
-        <v>0.005456388385839506</v>
+        <v>5.4563883858395057E-3</v>
       </c>
       <c r="H33">
-        <v>6.015196314511845</v>
+        <v>6.0151963145118454</v>
       </c>
       <c r="I33">
-        <v>0.5456388385839506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.54563883858395057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1462,25 +1479,25 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1.922490314171282</v>
+        <v>1.9224903141712819</v>
       </c>
       <c r="E34">
         <v>5.683101029330949</v>
       </c>
       <c r="F34">
-        <v>0.08738592337142193</v>
+        <v>8.7385923371421925E-2</v>
       </c>
       <c r="G34">
-        <v>0.07171374772775629</v>
+        <v>7.1713747727756294E-2</v>
       </c>
       <c r="H34">
-        <v>8.738592337142192</v>
+        <v>8.7385923371421921</v>
       </c>
       <c r="I34">
-        <v>7.171374772775629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>7.1713747727756294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1491,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1.922490314171282</v>
+        <v>1.9224903141712819</v>
       </c>
       <c r="E35">
         <v>5.683101029330949</v>
       </c>
       <c r="F35">
-        <v>0.08738592337142193</v>
+        <v>8.7385923371421925E-2</v>
       </c>
       <c r="G35">
-        <v>0.07171374772775629</v>
+        <v>7.1713747727756294E-2</v>
       </c>
       <c r="H35">
-        <v>8.738592337142192</v>
+        <v>8.7385923371421921</v>
       </c>
       <c r="I35">
-        <v>7.171374772775629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>7.1713747727756294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1523,22 +1540,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E36">
-        <v>9.628287258368523</v>
+        <v>9.6282872583685233</v>
       </c>
       <c r="F36">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G36">
-        <v>0.1214971474083223</v>
+        <v>0.12149714740832231</v>
       </c>
       <c r="H36">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I36">
-        <v>12.14971474083223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>12.149714740832231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1552,22 +1569,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E37">
-        <v>9.628287258368523</v>
+        <v>9.6282872583685233</v>
       </c>
       <c r="F37">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G37">
-        <v>0.1214971474083223</v>
+        <v>0.12149714740832231</v>
       </c>
       <c r="H37">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I37">
-        <v>12.14971474083223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>12.149714740832231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1581,22 +1598,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E38">
-        <v>9.628287258368523</v>
+        <v>9.6282872583685233</v>
       </c>
       <c r="F38">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G38">
-        <v>0.1214971474083223</v>
+        <v>0.12149714740832231</v>
       </c>
       <c r="H38">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I38">
-        <v>12.14971474083223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>12.149714740832231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1610,22 +1627,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E39">
-        <v>9.628287258368523</v>
+        <v>9.6282872583685233</v>
       </c>
       <c r="F39">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G39">
-        <v>0.1214971474083223</v>
+        <v>0.12149714740832231</v>
       </c>
       <c r="H39">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I39">
-        <v>12.14971474083223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>12.149714740832231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1636,25 +1653,25 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E40">
         <v>3.835490763336352</v>
       </c>
       <c r="F40">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G40">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H40">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I40">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1665,25 +1682,25 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E41">
         <v>3.835490763336352</v>
       </c>
       <c r="F41">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G41">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H41">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I41">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1694,25 +1711,25 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E42">
         <v>3.835490763336352</v>
       </c>
       <c r="F42">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G42">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H42">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I42">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1723,25 +1740,25 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E43">
         <v>3.835490763336352</v>
       </c>
       <c r="F43">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G43">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H43">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I43">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1752,25 +1769,25 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E44">
         <v>3.835490763336352</v>
       </c>
       <c r="F44">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G44">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H44">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I44">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1781,25 +1798,25 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E45">
         <v>3.835490763336352</v>
       </c>
       <c r="F45">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G45">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H45">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I45">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1810,25 +1827,25 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1.922490314171282</v>
+        <v>1.9224903141712819</v>
       </c>
       <c r="E46">
         <v>5.683101029330949</v>
       </c>
       <c r="F46">
-        <v>0.08738592337142193</v>
+        <v>8.7385923371421925E-2</v>
       </c>
       <c r="G46">
-        <v>0.07171374772775629</v>
+        <v>7.1713747727756294E-2</v>
       </c>
       <c r="H46">
-        <v>8.738592337142192</v>
+        <v>8.7385923371421921</v>
       </c>
       <c r="I46">
-        <v>7.171374772775629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>7.1713747727756294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1839,25 +1856,25 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1.922490314171282</v>
+        <v>1.9224903141712819</v>
       </c>
       <c r="E47">
         <v>5.683101029330949</v>
       </c>
       <c r="F47">
-        <v>0.08738592337142193</v>
+        <v>8.7385923371421925E-2</v>
       </c>
       <c r="G47">
-        <v>0.07171374772775629</v>
+        <v>7.1713747727756294E-2</v>
       </c>
       <c r="H47">
-        <v>8.738592337142192</v>
+        <v>8.7385923371421921</v>
       </c>
       <c r="I47">
-        <v>7.171374772775629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>7.1713747727756294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1871,22 +1888,22 @@
         <v>1.323343189192606</v>
       </c>
       <c r="E48">
-        <v>0.4324025369544557</v>
+        <v>0.43240253695445569</v>
       </c>
       <c r="F48">
-        <v>0.06015196314511845</v>
+        <v>6.0151963145118448E-2</v>
       </c>
       <c r="G48">
-        <v>0.005456388385839506</v>
+        <v>5.4563883858395057E-3</v>
       </c>
       <c r="H48">
-        <v>6.015196314511845</v>
+        <v>6.0151963145118454</v>
       </c>
       <c r="I48">
-        <v>0.5456388385839506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.54563883858395057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1900,22 +1917,22 @@
         <v>1.323343189192606</v>
       </c>
       <c r="E49">
-        <v>0.4324025369544557</v>
+        <v>0.43240253695445569</v>
       </c>
       <c r="F49">
-        <v>0.06015196314511845</v>
+        <v>6.0151963145118448E-2</v>
       </c>
       <c r="G49">
-        <v>0.005456388385839506</v>
+        <v>5.4563883858395057E-3</v>
       </c>
       <c r="H49">
-        <v>6.015196314511845</v>
+        <v>6.0151963145118454</v>
       </c>
       <c r="I49">
-        <v>0.5456388385839506</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.54563883858395057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1926,25 +1943,25 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E50">
         <v>3.835490763336352</v>
       </c>
       <c r="F50">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G50">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H50">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I50">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1955,25 +1972,25 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.5312675980566333</v>
+        <v>0.53126759805663326</v>
       </c>
       <c r="E51">
         <v>3.835490763336352</v>
       </c>
       <c r="F51">
-        <v>0.02414852718439242</v>
+        <v>2.4148527184392421E-2</v>
       </c>
       <c r="G51">
-        <v>0.04839917777186231</v>
+        <v>4.8399177771862312E-2</v>
       </c>
       <c r="H51">
-        <v>2.414852718439242</v>
+        <v>2.4148527184392421</v>
       </c>
       <c r="I51">
-        <v>4.839917777186232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>4.8399177771862316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1990,19 +2007,19 @@
         <v>5.626831444689266</v>
       </c>
       <c r="F52">
-        <v>0.02946870413003139</v>
+        <v>2.946870413003139E-2</v>
       </c>
       <c r="G52">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H52">
-        <v>2.946870413003139</v>
+        <v>2.9468704130031389</v>
       </c>
       <c r="I52">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2019,19 +2036,19 @@
         <v>5.626831444689266</v>
       </c>
       <c r="F53">
-        <v>0.02946870413003139</v>
+        <v>2.946870413003139E-2</v>
       </c>
       <c r="G53">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H53">
-        <v>2.946870413003139</v>
+        <v>2.9468704130031389</v>
       </c>
       <c r="I53">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2048,19 +2065,19 @@
         <v>5.626831444689266</v>
       </c>
       <c r="F54">
-        <v>0.02946870413003139</v>
+        <v>2.946870413003139E-2</v>
       </c>
       <c r="G54">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H54">
-        <v>2.946870413003139</v>
+        <v>2.9468704130031389</v>
       </c>
       <c r="I54">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2077,19 +2094,19 @@
         <v>5.626831444689266</v>
       </c>
       <c r="F55">
-        <v>0.02946870413003139</v>
+        <v>2.946870413003139E-2</v>
       </c>
       <c r="G55">
-        <v>0.07100369475194035</v>
+        <v>7.1003694751940349E-2</v>
       </c>
       <c r="H55">
-        <v>2.946870413003139</v>
+        <v>2.9468704130031389</v>
       </c>
       <c r="I55">
-        <v>7.100369475194035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>7.1003694751940349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2103,22 +2120,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E56">
-        <v>20.88195014774704</v>
+        <v>20.881950147747041</v>
       </c>
       <c r="F56">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G56">
-        <v>0.2635045369122027</v>
+        <v>0.26350453691220271</v>
       </c>
       <c r="H56">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I56">
         <v>26.35045369122027</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2132,22 +2149,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E57">
-        <v>20.88195014774704</v>
+        <v>20.881950147747041</v>
       </c>
       <c r="F57">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G57">
-        <v>0.2635045369122027</v>
+        <v>0.26350453691220271</v>
       </c>
       <c r="H57">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I57">
         <v>26.35045369122027</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2161,22 +2178,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E58">
-        <v>20.88195014774704</v>
+        <v>20.881950147747041</v>
       </c>
       <c r="F58">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G58">
-        <v>0.2635045369122027</v>
+        <v>0.26350453691220271</v>
       </c>
       <c r="H58">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I58">
         <v>26.35045369122027</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2190,22 +2207,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E59">
-        <v>20.88195014774704</v>
+        <v>20.881950147747041</v>
       </c>
       <c r="F59">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G59">
-        <v>0.2635045369122027</v>
+        <v>0.26350453691220271</v>
       </c>
       <c r="H59">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I59">
         <v>26.35045369122027</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2216,25 +2233,25 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1.517819759235351</v>
+        <v>1.5178197592353511</v>
       </c>
       <c r="E60">
-        <v>27.42824093104108</v>
+        <v>27.428240931041081</v>
       </c>
       <c r="F60">
-        <v>0.06899180723797055</v>
+        <v>6.8991807237970548E-2</v>
       </c>
       <c r="G60">
-        <v>0.3461106780599261</v>
+        <v>0.34611067805992612</v>
       </c>
       <c r="H60">
-        <v>6.899180723797055</v>
+        <v>6.8991807237970546</v>
       </c>
       <c r="I60">
-        <v>34.6110678059926</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>34.611067805992597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2245,25 +2262,25 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1.517819759235351</v>
+        <v>1.5178197592353511</v>
       </c>
       <c r="E61">
-        <v>27.42824093104108</v>
+        <v>27.428240931041081</v>
       </c>
       <c r="F61">
-        <v>0.06899180723797055</v>
+        <v>6.8991807237970548E-2</v>
       </c>
       <c r="G61">
-        <v>0.3461106780599261</v>
+        <v>0.34611067805992612</v>
       </c>
       <c r="H61">
-        <v>6.899180723797055</v>
+        <v>6.8991807237970546</v>
       </c>
       <c r="I61">
-        <v>34.6110678059926</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>34.611067805992597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2277,22 +2294,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E62">
-        <v>20.88195014774704</v>
+        <v>20.881950147747041</v>
       </c>
       <c r="F62">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G62">
-        <v>0.2635045369122027</v>
+        <v>0.26350453691220271</v>
       </c>
       <c r="H62">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I62">
         <v>26.35045369122027</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2306,22 +2323,22 @@
         <v>1.071335116800711</v>
       </c>
       <c r="E63">
-        <v>20.88195014774704</v>
+        <v>20.881950147747041</v>
       </c>
       <c r="F63">
-        <v>0.0486970507636687</v>
+        <v>4.8697050763668703E-2</v>
       </c>
       <c r="G63">
-        <v>0.2635045369122027</v>
+        <v>0.26350453691220271</v>
       </c>
       <c r="H63">
-        <v>4.86970507636687</v>
+        <v>4.8697050763668699</v>
       </c>
       <c r="I63">
         <v>26.35045369122027</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2332,25 +2349,25 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>0.8961394457918956</v>
+        <v>0.89613944579189564</v>
       </c>
       <c r="E64">
         <v>1.974101105452057</v>
       </c>
       <c r="F64">
-        <v>0.04073361117235896</v>
+        <v>4.0733611172358963E-2</v>
       </c>
       <c r="G64">
-        <v>0.02491072883181533</v>
+        <v>2.4910728831815328E-2</v>
       </c>
       <c r="H64">
-        <v>4.073361117235896</v>
+        <v>4.0733611172358959</v>
       </c>
       <c r="I64">
-        <v>2.491072883181533</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>2.4910728831815332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2361,25 +2378,25 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>0.8961394457918956</v>
+        <v>0.89613944579189564</v>
       </c>
       <c r="E65">
         <v>1.974101105452057</v>
       </c>
       <c r="F65">
-        <v>0.04073361117235896</v>
+        <v>4.0733611172358963E-2</v>
       </c>
       <c r="G65">
-        <v>0.02491072883181533</v>
+        <v>2.4910728831815328E-2</v>
       </c>
       <c r="H65">
-        <v>4.073361117235896</v>
+        <v>4.0733611172358959</v>
       </c>
       <c r="I65">
-        <v>2.491072883181533</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>2.4910728831815332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2390,25 +2407,25 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.8961394457918956</v>
+        <v>0.89613944579189564</v>
       </c>
       <c r="E66">
         <v>1.974101105452057</v>
       </c>
       <c r="F66">
-        <v>0.04073361117235896</v>
+        <v>4.0733611172358963E-2</v>
       </c>
       <c r="G66">
-        <v>0.02491072883181533</v>
+        <v>2.4910728831815328E-2</v>
       </c>
       <c r="H66">
-        <v>4.073361117235896</v>
+        <v>4.0733611172358959</v>
       </c>
       <c r="I66">
-        <v>2.491072883181533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>2.4910728831815332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2419,25 +2436,25 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>0.8961394457918956</v>
+        <v>0.89613944579189564</v>
       </c>
       <c r="E67">
         <v>1.974101105452057</v>
       </c>
       <c r="F67">
-        <v>0.04073361117235896</v>
+        <v>4.0733611172358963E-2</v>
       </c>
       <c r="G67">
-        <v>0.02491072883181533</v>
+        <v>2.4910728831815328E-2</v>
       </c>
       <c r="H67">
-        <v>4.073361117235896</v>
+        <v>4.0733611172358959</v>
       </c>
       <c r="I67">
-        <v>2.491072883181533</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>2.4910728831815332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2448,25 +2465,25 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>1.481239870391306</v>
+        <v>1.4812398703913059</v>
       </c>
       <c r="E68">
         <v>2.210815019666363</v>
       </c>
       <c r="F68">
-        <v>0.06732908501778667</v>
+        <v>6.7329085017786672E-2</v>
       </c>
       <c r="G68">
-        <v>0.02789776739403715</v>
+        <v>2.7897767394037151E-2</v>
       </c>
       <c r="H68">
-        <v>6.732908501778667</v>
+        <v>6.7329085017786667</v>
       </c>
       <c r="I68">
         <v>2.789776739403715</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2477,25 +2494,25 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>1.481239870391306</v>
+        <v>1.4812398703913059</v>
       </c>
       <c r="E69">
         <v>2.210815019666363</v>
       </c>
       <c r="F69">
-        <v>0.06732908501778667</v>
+        <v>6.7329085017786672E-2</v>
       </c>
       <c r="G69">
-        <v>0.02789776739403715</v>
+        <v>2.7897767394037151E-2</v>
       </c>
       <c r="H69">
-        <v>6.732908501778667</v>
+        <v>6.7329085017786667</v>
       </c>
       <c r="I69">
         <v>2.789776739403715</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2506,25 +2523,25 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>1.481239870391306</v>
+        <v>1.4812398703913059</v>
       </c>
       <c r="E70">
         <v>2.210815019666363</v>
       </c>
       <c r="F70">
-        <v>0.06732908501778667</v>
+        <v>6.7329085017786672E-2</v>
       </c>
       <c r="G70">
-        <v>0.02789776739403715</v>
+        <v>2.7897767394037151E-2</v>
       </c>
       <c r="H70">
-        <v>6.732908501778667</v>
+        <v>6.7329085017786667</v>
       </c>
       <c r="I70">
         <v>2.789776739403715</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2535,25 +2552,25 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>1.481239870391306</v>
+        <v>1.4812398703913059</v>
       </c>
       <c r="E71">
         <v>2.210815019666363</v>
       </c>
       <c r="F71">
-        <v>0.06732908501778667</v>
+        <v>6.7329085017786672E-2</v>
       </c>
       <c r="G71">
-        <v>0.02789776739403715</v>
+        <v>2.7897767394037151E-2</v>
       </c>
       <c r="H71">
-        <v>6.732908501778667</v>
+        <v>6.7329085017786667</v>
       </c>
       <c r="I71">
         <v>2.789776739403715</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2567,22 +2584,22 @@
         <v>2.002263555796274</v>
       </c>
       <c r="E72">
-        <v>6.846278446569009</v>
+        <v>6.8462784465690092</v>
       </c>
       <c r="F72">
-        <v>0.09101197980892162</v>
+        <v>9.1011979808921617E-2</v>
       </c>
       <c r="G72">
-        <v>0.08639161662924455</v>
+        <v>8.639161662924455E-2</v>
       </c>
       <c r="H72">
-        <v>9.101197980892161</v>
+        <v>9.1011979808921613</v>
       </c>
       <c r="I72">
-        <v>8.639161662924455</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>8.6391616629244545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2596,22 +2613,22 @@
         <v>2.002263555796274</v>
       </c>
       <c r="E73">
-        <v>6.846278446569009</v>
+        <v>6.8462784465690092</v>
       </c>
       <c r="F73">
-        <v>0.09101197980892162</v>
+        <v>9.1011979808921617E-2</v>
       </c>
       <c r="G73">
-        <v>0.08639161662924455</v>
+        <v>8.639161662924455E-2</v>
       </c>
       <c r="H73">
-        <v>9.101197980892161</v>
+        <v>9.1011979808921613</v>
       </c>
       <c r="I73">
-        <v>8.639161662924455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>8.6391616629244545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2622,25 +2639,25 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.3003882669573432</v>
+        <v>0.30038826695734322</v>
       </c>
       <c r="E74">
-        <v>7.367785347227233</v>
+        <v>7.3677853472272332</v>
       </c>
       <c r="F74">
-        <v>0.01365401213442469</v>
+        <v>1.365401213442469E-2</v>
       </c>
       <c r="G74">
-        <v>0.0929723925329401</v>
+        <v>9.2972392532940096E-2</v>
       </c>
       <c r="H74">
-        <v>1.365401213442469</v>
+        <v>1.3654012134424689</v>
       </c>
       <c r="I74">
-        <v>9.297239253294009</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>9.2972392532940091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2651,25 +2668,25 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.3003882669573432</v>
+        <v>0.30038826695734322</v>
       </c>
       <c r="E75">
-        <v>7.367785347227233</v>
+        <v>7.3677853472272332</v>
       </c>
       <c r="F75">
-        <v>0.01365401213442469</v>
+        <v>1.365401213442469E-2</v>
       </c>
       <c r="G75">
-        <v>0.0929723925329401</v>
+        <v>9.2972392532940096E-2</v>
       </c>
       <c r="H75">
-        <v>1.365401213442469</v>
+        <v>1.3654012134424689</v>
       </c>
       <c r="I75">
-        <v>9.297239253294009</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>9.2972392532940091</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2686,19 +2703,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F76">
-        <v>0.05079790042201482</v>
+        <v>5.0797900422014819E-2</v>
       </c>
       <c r="G76">
         <v>0.1178067136478812</v>
       </c>
       <c r="H76">
-        <v>5.079790042201482</v>
+        <v>5.0797900422014823</v>
       </c>
       <c r="I76">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2715,19 +2732,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F77">
-        <v>0.05079790042201482</v>
+        <v>5.0797900422014819E-2</v>
       </c>
       <c r="G77">
         <v>0.1178067136478812</v>
       </c>
       <c r="H77">
-        <v>5.079790042201482</v>
+        <v>5.0797900422014823</v>
       </c>
       <c r="I77">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2744,19 +2761,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F78">
-        <v>0.05079790042201482</v>
+        <v>5.0797900422014819E-2</v>
       </c>
       <c r="G78">
         <v>0.1178067136478812</v>
       </c>
       <c r="H78">
-        <v>5.079790042201482</v>
+        <v>5.0797900422014823</v>
       </c>
       <c r="I78">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2773,19 +2790,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F79">
-        <v>0.05079790042201482</v>
+        <v>5.0797900422014819E-2</v>
       </c>
       <c r="G79">
         <v>0.1178067136478812</v>
       </c>
       <c r="H79">
-        <v>5.079790042201482</v>
+        <v>5.0797900422014823</v>
       </c>
       <c r="I79">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2796,25 +2813,25 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>0.2148477231887025</v>
+        <v>0.21484772318870249</v>
       </c>
       <c r="E80">
         <v>11.45692776522962</v>
       </c>
       <c r="F80">
-        <v>0.009765805599486477</v>
+        <v>9.7658055994864768E-3</v>
       </c>
       <c r="G80">
         <v>0.144572342326902</v>
       </c>
       <c r="H80">
-        <v>0.9765805599486477</v>
+        <v>0.97658055994864768</v>
       </c>
       <c r="I80">
-        <v>14.4572342326902</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>14.457234232690199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2825,25 +2842,25 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>0.2148477231887025</v>
+        <v>0.21484772318870249</v>
       </c>
       <c r="E81">
         <v>11.45692776522962</v>
       </c>
       <c r="F81">
-        <v>0.009765805599486477</v>
+        <v>9.7658055994864768E-3</v>
       </c>
       <c r="G81">
         <v>0.144572342326902</v>
       </c>
       <c r="H81">
-        <v>0.9765805599486477</v>
+        <v>0.97658055994864768</v>
       </c>
       <c r="I81">
-        <v>14.4572342326902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>14.457234232690199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2854,25 +2871,25 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E82">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F82">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G82">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H82">
         <v>1.05486540617451</v>
       </c>
       <c r="I82">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2883,25 +2900,25 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E83">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F83">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G83">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H83">
         <v>1.05486540617451</v>
       </c>
       <c r="I83">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2912,25 +2929,25 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E84">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F84">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G84">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H84">
         <v>1.05486540617451</v>
       </c>
       <c r="I84">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2941,25 +2958,25 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E85">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F85">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G85">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H85">
         <v>1.05486540617451</v>
       </c>
       <c r="I85">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2970,25 +2987,25 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E86">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F86">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G86">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H86">
         <v>1.05486540617451</v>
       </c>
       <c r="I86">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2999,25 +3016,25 @@
         <v>4</v>
       </c>
       <c r="D87">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E87">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F87">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G87">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H87">
         <v>1.05486540617451</v>
       </c>
       <c r="I87">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3028,25 +3045,25 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E88">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F88">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G88">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H88">
         <v>1.05486540617451</v>
       </c>
       <c r="I88">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3057,25 +3074,25 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>0.2320703893583929</v>
+        <v>0.23207038935839289</v>
       </c>
       <c r="E89">
-        <v>7.290422879680939</v>
+        <v>7.2904228796809392</v>
       </c>
       <c r="F89">
-        <v>0.0105486540617451</v>
+        <v>1.05486540617451E-2</v>
       </c>
       <c r="G89">
-        <v>0.09199617330815801</v>
+        <v>9.1996173308158014E-2</v>
       </c>
       <c r="H89">
         <v>1.05486540617451</v>
       </c>
       <c r="I89">
-        <v>9.199617330815801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>9.1996173308158014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3086,25 +3103,25 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E90">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F90">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G90">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H90">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I90">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3115,25 +3132,25 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E91">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F91">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G91">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H91">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I91">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3144,25 +3161,25 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E92">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F92">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G92">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H92">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I92">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3173,25 +3190,25 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E93">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F93">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G93">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H93">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I93">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3202,25 +3219,25 @@
         <v>5</v>
       </c>
       <c r="D94">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E94">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F94">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G94">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H94">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I94">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3231,25 +3248,25 @@
         <v>5</v>
       </c>
       <c r="D95">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E95">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F95">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G95">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H95">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I95">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3260,25 +3277,25 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E96">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F96">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G96">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H96">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I96">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3289,25 +3306,25 @@
         <v>5</v>
       </c>
       <c r="D97">
-        <v>0.6359899070926733</v>
+        <v>0.63598990709267333</v>
       </c>
       <c r="E97">
-        <v>4.93712601357263</v>
+        <v>4.9371260135726303</v>
       </c>
       <c r="F97">
-        <v>0.02890863214057615</v>
+        <v>2.8908632140576151E-2</v>
       </c>
       <c r="G97">
-        <v>0.06230046019068791</v>
+        <v>6.2300460190687912E-2</v>
       </c>
       <c r="H97">
-        <v>2.890863214057615</v>
+        <v>2.8908632140576151</v>
       </c>
       <c r="I97">
-        <v>6.230046019068791</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>6.2300460190687907</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3324,19 +3341,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F98">
-        <v>0.05079790042201482</v>
+        <v>5.0797900422014819E-2</v>
       </c>
       <c r="G98">
         <v>0.1178067136478812</v>
       </c>
       <c r="H98">
-        <v>5.079790042201482</v>
+        <v>5.0797900422014823</v>
       </c>
       <c r="I98">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3353,19 +3370,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F99">
-        <v>0.05079790042201482</v>
+        <v>5.0797900422014819E-2</v>
       </c>
       <c r="G99">
         <v>0.1178067136478812</v>
       </c>
       <c r="H99">
-        <v>5.079790042201482</v>
+        <v>5.0797900422014823</v>
       </c>
       <c r="I99">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3379,10 +3396,10 @@
         <v>2.019927366493079</v>
       </c>
       <c r="E100">
-        <v>11.12574197681423</v>
+        <v>11.125741976814229</v>
       </c>
       <c r="F100">
-        <v>0.09181488029513984</v>
+        <v>9.1814880295139845E-2</v>
       </c>
       <c r="G100">
         <v>0.140393184863598</v>
@@ -3394,7 +3411,7 @@
         <v>14.0393184863598</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3408,10 +3425,10 @@
         <v>2.019927366493079</v>
       </c>
       <c r="E101">
-        <v>11.12574197681423</v>
+        <v>11.125741976814229</v>
       </c>
       <c r="F101">
-        <v>0.09181488029513984</v>
+        <v>9.1814880295139845E-2</v>
       </c>
       <c r="G101">
         <v>0.140393184863598</v>
@@ -3423,7 +3440,7 @@
         <v>14.0393184863598</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3437,22 +3454,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E102">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F102">
         <v>0.1753454874827379</v>
       </c>
       <c r="G102">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H102">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I102">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3466,22 +3483,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E103">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F103">
         <v>0.1753454874827379</v>
       </c>
       <c r="G103">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H103">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I103">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3492,25 +3509,25 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>8.725835234933776</v>
+        <v>8.7258352349337756</v>
       </c>
       <c r="E104">
-        <v>3.824733115503619</v>
+        <v>3.8247331155036188</v>
       </c>
       <c r="F104">
-        <v>0.3966288743151716</v>
+        <v>0.39662887431517158</v>
       </c>
       <c r="G104">
-        <v>0.04826342948253248</v>
+        <v>4.8263429482532483E-2</v>
       </c>
       <c r="H104">
-        <v>39.66288743151716</v>
+        <v>39.662887431517163</v>
       </c>
       <c r="I104">
-        <v>4.826342948253249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>4.8263429482532487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3521,25 +3538,25 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>8.725835234933776</v>
+        <v>8.7258352349337756</v>
       </c>
       <c r="E105">
-        <v>3.824733115503619</v>
+        <v>3.8247331155036188</v>
       </c>
       <c r="F105">
-        <v>0.3966288743151716</v>
+        <v>0.39662887431517158</v>
       </c>
       <c r="G105">
-        <v>0.04826342948253248</v>
+        <v>4.8263429482532483E-2</v>
       </c>
       <c r="H105">
-        <v>39.66288743151716</v>
+        <v>39.662887431517163</v>
       </c>
       <c r="I105">
-        <v>4.826342948253249</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>4.8263429482532487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3550,25 +3567,25 @@
         <v>4</v>
       </c>
       <c r="D106">
-        <v>8.725835234933776</v>
+        <v>8.7258352349337756</v>
       </c>
       <c r="E106">
-        <v>3.824733115503619</v>
+        <v>3.8247331155036188</v>
       </c>
       <c r="F106">
-        <v>0.3966288743151716</v>
+        <v>0.39662887431517158</v>
       </c>
       <c r="G106">
-        <v>0.04826342948253248</v>
+        <v>4.8263429482532483E-2</v>
       </c>
       <c r="H106">
-        <v>39.66288743151716</v>
+        <v>39.662887431517163</v>
       </c>
       <c r="I106">
-        <v>4.826342948253249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>4.8263429482532487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3579,25 +3596,25 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>8.725835234933776</v>
+        <v>8.7258352349337756</v>
       </c>
       <c r="E107">
-        <v>3.824733115503619</v>
+        <v>3.8247331155036188</v>
       </c>
       <c r="F107">
-        <v>0.3966288743151716</v>
+        <v>0.39662887431517158</v>
       </c>
       <c r="G107">
-        <v>0.04826342948253248</v>
+        <v>4.8263429482532483E-2</v>
       </c>
       <c r="H107">
-        <v>39.66288743151716</v>
+        <v>39.662887431517163</v>
       </c>
       <c r="I107">
-        <v>4.826342948253249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>4.8263429482532487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3608,25 +3625,25 @@
         <v>4</v>
       </c>
       <c r="D108">
-        <v>9.687331780533832</v>
+        <v>9.6873317805338317</v>
       </c>
       <c r="E108">
-        <v>2.959303778223102</v>
+        <v>2.9593037782231022</v>
       </c>
       <c r="F108">
-        <v>0.4403332627515378</v>
+        <v>0.44033326275153778</v>
       </c>
       <c r="G108">
-        <v>0.0373427752746236</v>
+        <v>3.7342775274623603E-2</v>
       </c>
       <c r="H108">
-        <v>44.03332627515378</v>
+        <v>44.033326275153783</v>
       </c>
       <c r="I108">
-        <v>3.73427752746236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>3.7342775274623601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3637,25 +3654,25 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>9.687331780533832</v>
+        <v>9.6873317805338317</v>
       </c>
       <c r="E109">
-        <v>2.959303778223102</v>
+        <v>2.9593037782231022</v>
       </c>
       <c r="F109">
-        <v>0.4403332627515378</v>
+        <v>0.44033326275153778</v>
       </c>
       <c r="G109">
-        <v>0.0373427752746236</v>
+        <v>3.7342775274623603E-2</v>
       </c>
       <c r="H109">
-        <v>44.03332627515378</v>
+        <v>44.033326275153783</v>
       </c>
       <c r="I109">
-        <v>3.73427752746236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>3.7342775274623601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3669,22 +3686,22 @@
         <v>10.9306489334357</v>
       </c>
       <c r="E110">
-        <v>4.960761155191705</v>
+        <v>4.9607611551917046</v>
       </c>
       <c r="F110">
-        <v>0.4968476787925319</v>
+        <v>0.49684767879253189</v>
       </c>
       <c r="G110">
-        <v>0.06259870661897282</v>
+        <v>6.2598706618972821E-2</v>
       </c>
       <c r="H110">
-        <v>49.68476787925319</v>
+        <v>49.684767879253187</v>
       </c>
       <c r="I110">
-        <v>6.259870661897282</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>6.2598706618972821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3698,22 +3715,22 @@
         <v>10.9306489334357</v>
       </c>
       <c r="E111">
-        <v>4.960761155191705</v>
+        <v>4.9607611551917046</v>
       </c>
       <c r="F111">
-        <v>0.4968476787925319</v>
+        <v>0.49684767879253189</v>
       </c>
       <c r="G111">
-        <v>0.06259870661897282</v>
+        <v>6.2598706618972821E-2</v>
       </c>
       <c r="H111">
-        <v>49.68476787925319</v>
+        <v>49.684767879253187</v>
       </c>
       <c r="I111">
-        <v>6.259870661897282</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>6.2598706618972821</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3724,25 +3741,25 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>9.979456049274702</v>
+        <v>9.9794560492747024</v>
       </c>
       <c r="E112">
-        <v>5.870141604390852</v>
+        <v>5.8701416043908523</v>
       </c>
       <c r="F112">
-        <v>0.4536116386033955</v>
+        <v>0.45361163860339548</v>
       </c>
       <c r="G112">
-        <v>0.07407396982225589</v>
+        <v>7.4073969822255892E-2</v>
       </c>
       <c r="H112">
-        <v>45.36116386033955</v>
+        <v>45.361163860339552</v>
       </c>
       <c r="I112">
-        <v>7.407396982225589</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>7.4073969822255892</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3753,25 +3770,25 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>9.979456049274702</v>
+        <v>9.9794560492747024</v>
       </c>
       <c r="E113">
-        <v>5.870141604390852</v>
+        <v>5.8701416043908523</v>
       </c>
       <c r="F113">
-        <v>0.4536116386033955</v>
+        <v>0.45361163860339548</v>
       </c>
       <c r="G113">
-        <v>0.07407396982225589</v>
+        <v>7.4073969822255892E-2</v>
       </c>
       <c r="H113">
-        <v>45.36116386033955</v>
+        <v>45.361163860339552</v>
       </c>
       <c r="I113">
-        <v>7.407396982225589</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>7.4073969822255892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3782,25 +3799,25 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>12.84611975610598</v>
+        <v>12.846119756105979</v>
       </c>
       <c r="E114">
-        <v>3.380588682391689</v>
+        <v>3.3805886823916889</v>
       </c>
       <c r="F114">
-        <v>0.5839145343684538</v>
+        <v>0.58391453436845375</v>
       </c>
       <c r="G114">
-        <v>0.04265887280361902</v>
+        <v>4.2658872803619019E-2</v>
       </c>
       <c r="H114">
-        <v>58.39145343684537</v>
+        <v>58.391453436845367</v>
       </c>
       <c r="I114">
-        <v>4.265887280361902</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>4.2658872803619019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3811,25 +3828,25 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>12.84611975610598</v>
+        <v>12.846119756105979</v>
       </c>
       <c r="E115">
-        <v>3.380588682391689</v>
+        <v>3.3805886823916889</v>
       </c>
       <c r="F115">
-        <v>0.5839145343684538</v>
+        <v>0.58391453436845375</v>
       </c>
       <c r="G115">
-        <v>0.04265887280361902</v>
+        <v>4.2658872803619019E-2</v>
       </c>
       <c r="H115">
-        <v>58.39145343684537</v>
+        <v>58.391453436845367</v>
       </c>
       <c r="I115">
-        <v>4.265887280361902</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>4.2658872803619019</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3840,25 +3857,25 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <v>17.68911821651709</v>
+        <v>17.689118216517091</v>
       </c>
       <c r="E116">
-        <v>0.4298095733853557</v>
+        <v>0.42980957338535569</v>
       </c>
       <c r="F116">
-        <v>0.8040508280235044</v>
+        <v>0.80405082802350436</v>
       </c>
       <c r="G116">
-        <v>0.005423668373595758</v>
+        <v>5.423668373595758E-3</v>
       </c>
       <c r="H116">
-        <v>80.40508280235044</v>
+        <v>80.405082802350435</v>
       </c>
       <c r="I116">
         <v>0.5423668373595758</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3869,25 +3886,25 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>17.68911821651709</v>
+        <v>17.689118216517091</v>
       </c>
       <c r="E117">
-        <v>0.4298095733853557</v>
+        <v>0.42980957338535569</v>
       </c>
       <c r="F117">
-        <v>0.8040508280235044</v>
+        <v>0.80405082802350436</v>
       </c>
       <c r="G117">
-        <v>0.005423668373595758</v>
+        <v>5.423668373595758E-3</v>
       </c>
       <c r="H117">
-        <v>80.40508280235044</v>
+        <v>80.405082802350435</v>
       </c>
       <c r="I117">
         <v>0.5423668373595758</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3898,25 +3915,25 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>19.64143221481713</v>
+        <v>19.641432214817129</v>
       </c>
       <c r="E118">
         <v>0.470050141519053</v>
       </c>
       <c r="F118">
-        <v>0.8927923734007788</v>
+        <v>0.89279237340077877</v>
       </c>
       <c r="G118">
-        <v>0.005931454868445707</v>
+        <v>5.9314548684457069E-3</v>
       </c>
       <c r="H118">
-        <v>89.27923734007788</v>
+        <v>89.279237340077884</v>
       </c>
       <c r="I118">
-        <v>0.5931454868445707</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.59314548684457069</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3927,25 +3944,25 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>19.64143221481713</v>
+        <v>19.641432214817129</v>
       </c>
       <c r="E119">
         <v>0.470050141519053</v>
       </c>
       <c r="F119">
-        <v>0.8927923734007788</v>
+        <v>0.89279237340077877</v>
       </c>
       <c r="G119">
-        <v>0.005931454868445707</v>
+        <v>5.9314548684457069E-3</v>
       </c>
       <c r="H119">
-        <v>89.27923734007788</v>
+        <v>89.279237340077884</v>
       </c>
       <c r="I119">
-        <v>0.5931454868445707</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.59314548684457069</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3959,22 +3976,22 @@
         <v>16.18514671229277</v>
       </c>
       <c r="E120">
-        <v>5.72203380590021</v>
+        <v>5.7220338059002103</v>
       </c>
       <c r="F120">
-        <v>0.7356884869223987</v>
+        <v>0.73568848692239874</v>
       </c>
       <c r="G120">
-        <v>0.07220503150096735</v>
+        <v>7.2205031500967354E-2</v>
       </c>
       <c r="H120">
-        <v>73.56884869223987</v>
+        <v>73.568848692239868</v>
       </c>
       <c r="I120">
-        <v>7.220503150096736</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>7.2205031500967358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3988,22 +4005,22 @@
         <v>16.18514671229277</v>
       </c>
       <c r="E121">
-        <v>5.72203380590021</v>
+        <v>5.7220338059002103</v>
       </c>
       <c r="F121">
-        <v>0.7356884869223987</v>
+        <v>0.73568848692239874</v>
       </c>
       <c r="G121">
-        <v>0.07220503150096735</v>
+        <v>7.2205031500967354E-2</v>
       </c>
       <c r="H121">
-        <v>73.56884869223987</v>
+        <v>73.568848692239868</v>
       </c>
       <c r="I121">
-        <v>7.220503150096736</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>7.2205031500967358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4017,22 +4034,22 @@
         <v>16.18514671229277</v>
       </c>
       <c r="E122">
-        <v>5.72203380590021</v>
+        <v>5.7220338059002103</v>
       </c>
       <c r="F122">
-        <v>0.7356884869223987</v>
+        <v>0.73568848692239874</v>
       </c>
       <c r="G122">
-        <v>0.07220503150096735</v>
+        <v>7.2205031500967354E-2</v>
       </c>
       <c r="H122">
-        <v>73.56884869223987</v>
+        <v>73.568848692239868</v>
       </c>
       <c r="I122">
-        <v>7.220503150096736</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>7.2205031500967358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4046,22 +4063,22 @@
         <v>16.18514671229277</v>
       </c>
       <c r="E123">
-        <v>5.72203380590021</v>
+        <v>5.7220338059002103</v>
       </c>
       <c r="F123">
-        <v>0.7356884869223987</v>
+        <v>0.73568848692239874</v>
       </c>
       <c r="G123">
-        <v>0.07220503150096735</v>
+        <v>7.2205031500967354E-2</v>
       </c>
       <c r="H123">
-        <v>73.56884869223987</v>
+        <v>73.568848692239868</v>
       </c>
       <c r="I123">
-        <v>7.220503150096736</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>7.2205031500967358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4072,25 +4089,25 @@
         <v>4</v>
       </c>
       <c r="D124">
-        <v>14.35102514812193</v>
+        <v>14.351025148121931</v>
       </c>
       <c r="E124">
-        <v>2.699000275446792</v>
+        <v>2.6990002754467919</v>
       </c>
       <c r="F124">
-        <v>0.6523193249146333</v>
+        <v>0.65231932491463329</v>
       </c>
       <c r="G124">
-        <v>0.03405806510769038</v>
+        <v>3.4058065107690383E-2</v>
       </c>
       <c r="H124">
-        <v>65.23193249146333</v>
+        <v>65.231932491463326</v>
       </c>
       <c r="I124">
-        <v>3.405806510769038</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>3.4058065107690378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4101,25 +4118,25 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>14.35102514812193</v>
+        <v>14.351025148121931</v>
       </c>
       <c r="E125">
-        <v>2.699000275446792</v>
+        <v>2.6990002754467919</v>
       </c>
       <c r="F125">
-        <v>0.6523193249146333</v>
+        <v>0.65231932491463329</v>
       </c>
       <c r="G125">
-        <v>0.03405806510769038</v>
+        <v>3.4058065107690383E-2</v>
       </c>
       <c r="H125">
-        <v>65.23193249146333</v>
+        <v>65.231932491463326</v>
       </c>
       <c r="I125">
-        <v>3.405806510769038</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>3.4058065107690378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4130,25 +4147,25 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>14.54299468014407</v>
+        <v>14.542994680144069</v>
       </c>
       <c r="E126">
-        <v>0.3000334906387536</v>
+        <v>0.30003349063875362</v>
       </c>
       <c r="F126">
-        <v>0.6610452127338213</v>
+        <v>0.66104521273382133</v>
       </c>
       <c r="G126">
-        <v>0.003786053766508313</v>
+        <v>3.7860537665083131E-3</v>
       </c>
       <c r="H126">
-        <v>66.10452127338213</v>
+        <v>66.104521273382133</v>
       </c>
       <c r="I126">
-        <v>0.3786053766508313</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.37860537665083133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4159,25 +4176,25 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>14.54299468014407</v>
+        <v>14.542994680144069</v>
       </c>
       <c r="E127">
-        <v>0.3000334906387536</v>
+        <v>0.30003349063875362</v>
       </c>
       <c r="F127">
-        <v>0.6610452127338213</v>
+        <v>0.66104521273382133</v>
       </c>
       <c r="G127">
-        <v>0.003786053766508313</v>
+        <v>3.7860537665083131E-3</v>
       </c>
       <c r="H127">
-        <v>66.10452127338213</v>
+        <v>66.104521273382133</v>
       </c>
       <c r="I127">
-        <v>0.3786053766508313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.37860537665083133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4188,25 +4205,25 @@
         <v>4</v>
       </c>
       <c r="D128">
-        <v>17.48219467801188</v>
+        <v>17.482194678011879</v>
       </c>
       <c r="E128">
         <v>1.679280163872434</v>
       </c>
       <c r="F128">
-        <v>0.7946452126369037</v>
+        <v>0.79464521263690369</v>
       </c>
       <c r="G128">
-        <v>0.02119045102570538</v>
+        <v>2.1190451025705381E-2</v>
       </c>
       <c r="H128">
-        <v>79.46452126369037</v>
+        <v>79.464521263690372</v>
       </c>
       <c r="I128">
-        <v>2.119045102570538</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>2.1190451025705381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4217,25 +4234,25 @@
         <v>4</v>
       </c>
       <c r="D129">
-        <v>17.48219467801188</v>
+        <v>17.482194678011879</v>
       </c>
       <c r="E129">
         <v>1.679280163872434</v>
       </c>
       <c r="F129">
-        <v>0.7946452126369037</v>
+        <v>0.79464521263690369</v>
       </c>
       <c r="G129">
-        <v>0.02119045102570538</v>
+        <v>2.1190451025705381E-2</v>
       </c>
       <c r="H129">
-        <v>79.46452126369037</v>
+        <v>79.464521263690372</v>
       </c>
       <c r="I129">
-        <v>2.119045102570538</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>2.1190451025705381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4249,13 +4266,13 @@
         <v>16.50088765622835</v>
       </c>
       <c r="E130">
-        <v>1.254874744510943</v>
+        <v>1.2548747445109429</v>
       </c>
       <c r="F130">
-        <v>0.7500403480103797</v>
+        <v>0.75004034801037966</v>
       </c>
       <c r="G130">
-        <v>0.01583497643158827</v>
+        <v>1.5834976431588269E-2</v>
       </c>
       <c r="H130">
         <v>75.00403480103796</v>
@@ -4264,7 +4281,7 @@
         <v>1.583497643158827</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4278,13 +4295,13 @@
         <v>16.50088765622835</v>
       </c>
       <c r="E131">
-        <v>1.254874744510943</v>
+        <v>1.2548747445109429</v>
       </c>
       <c r="F131">
-        <v>0.7500403480103797</v>
+        <v>0.75004034801037966</v>
       </c>
       <c r="G131">
-        <v>0.01583497643158827</v>
+        <v>1.5834976431588269E-2</v>
       </c>
       <c r="H131">
         <v>75.00403480103796</v>
@@ -4293,7 +4310,7 @@
         <v>1.583497643158827</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4307,13 +4324,13 @@
         <v>16.50088765622835</v>
       </c>
       <c r="E132">
-        <v>1.254874744510943</v>
+        <v>1.2548747445109429</v>
       </c>
       <c r="F132">
-        <v>0.7500403480103797</v>
+        <v>0.75004034801037966</v>
       </c>
       <c r="G132">
-        <v>0.01583497643158827</v>
+        <v>1.5834976431588269E-2</v>
       </c>
       <c r="H132">
         <v>75.00403480103796</v>
@@ -4322,7 +4339,7 @@
         <v>1.583497643158827</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4336,13 +4353,13 @@
         <v>16.50088765622835</v>
       </c>
       <c r="E133">
-        <v>1.254874744510943</v>
+        <v>1.2548747445109429</v>
       </c>
       <c r="F133">
-        <v>0.7500403480103797</v>
+        <v>0.75004034801037966</v>
       </c>
       <c r="G133">
-        <v>0.01583497643158827</v>
+        <v>1.5834976431588269E-2</v>
       </c>
       <c r="H133">
         <v>75.00403480103796</v>
@@ -4351,7 +4368,7 @@
         <v>1.583497643158827</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4362,25 +4379,25 @@
         <v>4</v>
       </c>
       <c r="D134">
-        <v>20.43366802738875</v>
+        <v>20.433668027388752</v>
       </c>
       <c r="E134">
-        <v>2.782400186723876</v>
+        <v>2.7824001867238759</v>
       </c>
       <c r="F134">
         <v>0.928803092154034</v>
       </c>
       <c r="G134">
-        <v>0.03511046944943519</v>
+        <v>3.5110469449435189E-2</v>
       </c>
       <c r="H134">
         <v>92.8803092154034</v>
       </c>
       <c r="I134">
-        <v>3.511046944943519</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>3.5110469449435189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4391,25 +4408,25 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>20.43366802738875</v>
+        <v>20.433668027388752</v>
       </c>
       <c r="E135">
-        <v>2.782400186723876</v>
+        <v>2.7824001867238759</v>
       </c>
       <c r="F135">
         <v>0.928803092154034</v>
       </c>
       <c r="G135">
-        <v>0.03511046944943519</v>
+        <v>3.5110469449435189E-2</v>
       </c>
       <c r="H135">
         <v>92.8803092154034</v>
       </c>
       <c r="I135">
-        <v>3.511046944943519</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>3.5110469449435189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4420,25 +4437,25 @@
         <v>4</v>
       </c>
       <c r="D136">
-        <v>23.56343128046384</v>
+        <v>23.563431280463838</v>
       </c>
       <c r="E136">
-        <v>1.945151942376029</v>
+        <v>1.9451519423760291</v>
       </c>
       <c r="F136">
         <v>1.071065058202902</v>
       </c>
       <c r="G136">
-        <v>0.02454542598623</v>
+        <v>2.454542598623E-2</v>
       </c>
       <c r="H136">
         <v>107.1065058202902</v>
       </c>
       <c r="I136">
-        <v>2.454542598623</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>2.4545425986230001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4449,25 +4466,25 @@
         <v>4</v>
       </c>
       <c r="D137">
-        <v>23.56343128046384</v>
+        <v>23.563431280463838</v>
       </c>
       <c r="E137">
-        <v>1.945151942376029</v>
+        <v>1.9451519423760291</v>
       </c>
       <c r="F137">
         <v>1.071065058202902</v>
       </c>
       <c r="G137">
-        <v>0.02454542598623</v>
+        <v>2.454542598623E-2</v>
       </c>
       <c r="H137">
         <v>107.1065058202902</v>
       </c>
       <c r="I137">
-        <v>2.454542598623</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>2.4545425986230001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4481,22 +4498,22 @@
         <v>24.54680975076127</v>
       </c>
       <c r="E138">
-        <v>2.259960749765128</v>
+        <v>2.2599607497651282</v>
       </c>
       <c r="F138">
-        <v>1.115764079580058</v>
+        <v>1.1157640795800581</v>
       </c>
       <c r="G138">
-        <v>0.02851792608416248</v>
+        <v>2.8517926084162482E-2</v>
       </c>
       <c r="H138">
         <v>111.5764079580058</v>
       </c>
       <c r="I138">
-        <v>2.851792608416248</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>2.8517926084162482</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4510,22 +4527,22 @@
         <v>24.54680975076127</v>
       </c>
       <c r="E139">
-        <v>2.259960749765128</v>
+        <v>2.2599607497651282</v>
       </c>
       <c r="F139">
-        <v>1.115764079580058</v>
+        <v>1.1157640795800581</v>
       </c>
       <c r="G139">
-        <v>0.02851792608416248</v>
+        <v>2.8517926084162482E-2</v>
       </c>
       <c r="H139">
         <v>111.5764079580058</v>
       </c>
       <c r="I139">
-        <v>2.851792608416248</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>2.8517926084162482</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4536,16 +4553,16 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>26.51635189739383</v>
+        <v>26.516351897393829</v>
       </c>
       <c r="E140">
-        <v>2.837228667129551</v>
+        <v>2.8372286671295508</v>
       </c>
       <c r="F140">
-        <v>1.205288722608811</v>
+        <v>1.2052887226088109</v>
       </c>
       <c r="G140">
-        <v>0.03580233746160244</v>
+        <v>3.580233746160244E-2</v>
       </c>
       <c r="H140">
         <v>120.5288722608811</v>
@@ -4554,7 +4571,7 @@
         <v>3.580233746160244</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4565,16 +4582,16 @@
         <v>4</v>
       </c>
       <c r="D141">
-        <v>26.51635189739383</v>
+        <v>26.516351897393829</v>
       </c>
       <c r="E141">
-        <v>2.837228667129551</v>
+        <v>2.8372286671295508</v>
       </c>
       <c r="F141">
-        <v>1.205288722608811</v>
+        <v>1.2052887226088109</v>
       </c>
       <c r="G141">
-        <v>0.03580233746160244</v>
+        <v>3.580233746160244E-2</v>
       </c>
       <c r="H141">
         <v>120.5288722608811</v>
@@ -4583,7 +4600,7 @@
         <v>3.580233746160244</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4594,16 +4611,16 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>30.46462940216215</v>
+        <v>30.464629402162149</v>
       </c>
       <c r="E142">
-        <v>3.818644955975955</v>
+        <v>3.8186449559759552</v>
       </c>
       <c r="F142">
-        <v>1.384755881916461</v>
+        <v>1.3847558819164609</v>
       </c>
       <c r="G142">
-        <v>0.04818660439456723</v>
+        <v>4.8186604394567227E-2</v>
       </c>
       <c r="H142">
         <v>138.4755881916461</v>
@@ -4612,7 +4629,7 @@
         <v>4.818660439456723</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4623,16 +4640,16 @@
         <v>4</v>
       </c>
       <c r="D143">
-        <v>30.46462940216215</v>
+        <v>30.464629402162149</v>
       </c>
       <c r="E143">
-        <v>3.818644955975955</v>
+        <v>3.8186449559759552</v>
       </c>
       <c r="F143">
-        <v>1.384755881916461</v>
+        <v>1.3847558819164609</v>
       </c>
       <c r="G143">
-        <v>0.04818660439456723</v>
+        <v>4.8186604394567227E-2</v>
       </c>
       <c r="H143">
         <v>138.4755881916461</v>
@@ -4641,7 +4658,7 @@
         <v>4.818660439456723</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4652,25 +4669,25 @@
         <v>4</v>
       </c>
       <c r="D144">
-        <v>32.44248879846575</v>
+        <v>32.442488798465753</v>
       </c>
       <c r="E144">
-        <v>4.239156888104318</v>
+        <v>4.2391568881043176</v>
       </c>
       <c r="F144">
         <v>1.474658581748443</v>
       </c>
       <c r="G144">
-        <v>0.05349294796676929</v>
+        <v>5.3492947966769289E-2</v>
       </c>
       <c r="H144">
         <v>147.4658581748443</v>
       </c>
       <c r="I144">
-        <v>5.349294796676929</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>5.3492947966769293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4681,25 +4698,25 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>32.44248879846575</v>
+        <v>32.442488798465753</v>
       </c>
       <c r="E145">
-        <v>4.239156888104318</v>
+        <v>4.2391568881043176</v>
       </c>
       <c r="F145">
         <v>1.474658581748443</v>
       </c>
       <c r="G145">
-        <v>0.05349294796676929</v>
+        <v>5.3492947966769289E-2</v>
       </c>
       <c r="H145">
         <v>147.4658581748443</v>
       </c>
       <c r="I145">
-        <v>5.349294796676929</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>5.3492947966769293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4710,25 +4727,25 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>33.58512780035196</v>
+        <v>33.585127800351962</v>
       </c>
       <c r="E146">
-        <v>3.102485010505546</v>
+        <v>3.1024850105055459</v>
       </c>
       <c r="F146">
-        <v>1.526596718197817</v>
+        <v>1.5265967181978171</v>
       </c>
       <c r="G146">
-        <v>0.03914954638748236</v>
+        <v>3.9149546387482359E-2</v>
       </c>
       <c r="H146">
-        <v>152.6596718197817</v>
+        <v>152.65967181978169</v>
       </c>
       <c r="I146">
-        <v>3.914954638748236</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>3.9149546387482359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4739,25 +4756,25 @@
         <v>4</v>
       </c>
       <c r="D147">
-        <v>33.58512780035196</v>
+        <v>33.585127800351962</v>
       </c>
       <c r="E147">
-        <v>3.102485010505546</v>
+        <v>3.1024850105055459</v>
       </c>
       <c r="F147">
-        <v>1.526596718197817</v>
+        <v>1.5265967181978171</v>
       </c>
       <c r="G147">
-        <v>0.03914954638748236</v>
+        <v>3.9149546387482359E-2</v>
       </c>
       <c r="H147">
-        <v>152.6596718197817</v>
+        <v>152.65967181978169</v>
       </c>
       <c r="I147">
-        <v>3.914954638748236</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>3.9149546387482359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4768,25 +4785,25 @@
         <v>4</v>
       </c>
       <c r="D148">
-        <v>33.58512780035196</v>
+        <v>33.585127800351962</v>
       </c>
       <c r="E148">
-        <v>3.102485010505546</v>
+        <v>3.1024850105055459</v>
       </c>
       <c r="F148">
-        <v>1.526596718197817</v>
+        <v>1.5265967181978171</v>
       </c>
       <c r="G148">
-        <v>0.03914954638748236</v>
+        <v>3.9149546387482359E-2</v>
       </c>
       <c r="H148">
-        <v>152.6596718197817</v>
+        <v>152.65967181978169</v>
       </c>
       <c r="I148">
-        <v>3.914954638748236</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>3.9149546387482359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4797,25 +4814,25 @@
         <v>4</v>
       </c>
       <c r="D149">
-        <v>33.58512780035196</v>
+        <v>33.585127800351962</v>
       </c>
       <c r="E149">
-        <v>3.102485010505546</v>
+        <v>3.1024850105055459</v>
       </c>
       <c r="F149">
-        <v>1.526596718197817</v>
+        <v>1.5265967181978171</v>
       </c>
       <c r="G149">
-        <v>0.03914954638748236</v>
+        <v>3.9149546387482359E-2</v>
       </c>
       <c r="H149">
-        <v>152.6596718197817</v>
+        <v>152.65967181978169</v>
       </c>
       <c r="I149">
-        <v>3.914954638748236</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>3.9149546387482359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4826,25 +4843,25 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <v>35.55912890815535</v>
+        <v>35.559128908155351</v>
       </c>
       <c r="E150">
-        <v>3.52532441517603</v>
+        <v>3.5253244151760299</v>
       </c>
       <c r="F150">
         <v>1.616324041279789</v>
       </c>
       <c r="G150">
-        <v>0.04448525980158358</v>
+        <v>4.4485259801583583E-2</v>
       </c>
       <c r="H150">
-        <v>161.6324041279788</v>
+        <v>161.63240412797879</v>
       </c>
       <c r="I150">
-        <v>4.448525980158358</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>4.4485259801583581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4855,25 +4872,25 @@
         <v>4</v>
       </c>
       <c r="D151">
-        <v>35.55912890815535</v>
+        <v>35.559128908155351</v>
       </c>
       <c r="E151">
-        <v>3.52532441517603</v>
+        <v>3.5253244151760299</v>
       </c>
       <c r="F151">
         <v>1.616324041279789</v>
       </c>
       <c r="G151">
-        <v>0.04448525980158358</v>
+        <v>4.4485259801583583E-2</v>
       </c>
       <c r="H151">
-        <v>161.6324041279788</v>
+        <v>161.63240412797879</v>
       </c>
       <c r="I151">
-        <v>4.448525980158358</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>4.4485259801583581</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4884,25 +4901,25 @@
         <v>4</v>
       </c>
       <c r="D152">
-        <v>37.39544410723723</v>
+        <v>37.395444107237232</v>
       </c>
       <c r="E152">
-        <v>5.133399247358653</v>
+        <v>5.1333992473586534</v>
       </c>
       <c r="F152">
-        <v>1.699792913965329</v>
+        <v>1.6997929139653289</v>
       </c>
       <c r="G152">
-        <v>0.06477718708693658</v>
+        <v>6.4777187086936583E-2</v>
       </c>
       <c r="H152">
-        <v>169.9792913965329</v>
+        <v>169.97929139653289</v>
       </c>
       <c r="I152">
-        <v>6.477718708693658</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>6.4777187086936578</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4913,25 +4930,25 @@
         <v>4</v>
       </c>
       <c r="D153">
-        <v>37.39544410723723</v>
+        <v>37.395444107237232</v>
       </c>
       <c r="E153">
-        <v>5.133399247358653</v>
+        <v>5.1333992473586534</v>
       </c>
       <c r="F153">
-        <v>1.699792913965329</v>
+        <v>1.6997929139653289</v>
       </c>
       <c r="G153">
-        <v>0.06477718708693658</v>
+        <v>6.4777187086936583E-2</v>
       </c>
       <c r="H153">
-        <v>169.9792913965329</v>
+        <v>169.97929139653289</v>
       </c>
       <c r="I153">
-        <v>6.477718708693658</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>6.4777187086936578</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4942,25 +4959,25 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>37.39544410723723</v>
+        <v>37.395444107237232</v>
       </c>
       <c r="E154">
-        <v>5.133399247358653</v>
+        <v>5.1333992473586534</v>
       </c>
       <c r="F154">
-        <v>1.699792913965329</v>
+        <v>1.6997929139653289</v>
       </c>
       <c r="G154">
-        <v>0.06477718708693658</v>
+        <v>6.4777187086936583E-2</v>
       </c>
       <c r="H154">
-        <v>169.9792913965329</v>
+        <v>169.97929139653289</v>
       </c>
       <c r="I154">
-        <v>6.477718708693658</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>6.4777187086936578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4971,25 +4988,25 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>37.39544410723723</v>
+        <v>37.395444107237232</v>
       </c>
       <c r="E155">
-        <v>5.133399247358653</v>
+        <v>5.1333992473586534</v>
       </c>
       <c r="F155">
-        <v>1.699792913965329</v>
+        <v>1.6997929139653289</v>
       </c>
       <c r="G155">
-        <v>0.06477718708693658</v>
+        <v>6.4777187086936583E-2</v>
       </c>
       <c r="H155">
-        <v>169.9792913965329</v>
+        <v>169.97929139653289</v>
       </c>
       <c r="I155">
-        <v>6.477718708693658</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>6.4777187086936578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5000,25 +5017,25 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>36.40402793952909</v>
+        <v>36.404027939529087</v>
       </c>
       <c r="E156">
-        <v>4.970163849939709</v>
+        <v>4.9701638499397092</v>
       </c>
       <c r="F156">
         <v>1.654728542705868</v>
       </c>
       <c r="G156">
-        <v>0.06271735706626191</v>
+        <v>6.2717357066261914E-2</v>
       </c>
       <c r="H156">
-        <v>165.4728542705868</v>
+        <v>165.47285427058679</v>
       </c>
       <c r="I156">
-        <v>6.271735706626192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>6.2717357066261918</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5029,25 +5046,25 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>36.40402793952909</v>
+        <v>36.404027939529087</v>
       </c>
       <c r="E157">
-        <v>4.970163849939709</v>
+        <v>4.9701638499397092</v>
       </c>
       <c r="F157">
         <v>1.654728542705868</v>
       </c>
       <c r="G157">
-        <v>0.06271735706626191</v>
+        <v>6.2717357066261914E-2</v>
       </c>
       <c r="H157">
-        <v>165.4728542705868</v>
+        <v>165.47285427058679</v>
       </c>
       <c r="I157">
-        <v>6.271735706626192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>6.2717357066261918</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5058,25 +5075,25 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>35.55912890815535</v>
+        <v>35.559128908155351</v>
       </c>
       <c r="E158">
-        <v>3.52532441517603</v>
+        <v>3.5253244151760299</v>
       </c>
       <c r="F158">
         <v>1.616324041279789</v>
       </c>
       <c r="G158">
-        <v>0.04448525980158358</v>
+        <v>4.4485259801583583E-2</v>
       </c>
       <c r="H158">
-        <v>161.6324041279788</v>
+        <v>161.63240412797879</v>
       </c>
       <c r="I158">
-        <v>4.448525980158358</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>4.4485259801583581</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5087,25 +5104,25 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>35.55912890815535</v>
+        <v>35.559128908155351</v>
       </c>
       <c r="E159">
-        <v>3.52532441517603</v>
+        <v>3.5253244151760299</v>
       </c>
       <c r="F159">
         <v>1.616324041279789</v>
       </c>
       <c r="G159">
-        <v>0.04448525980158358</v>
+        <v>4.4485259801583583E-2</v>
       </c>
       <c r="H159">
-        <v>161.6324041279788</v>
+        <v>161.63240412797879</v>
       </c>
       <c r="I159">
-        <v>4.448525980158358</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>4.4485259801583581</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5116,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>26.69892668341392</v>
+        <v>26.698926683413919</v>
       </c>
       <c r="E160">
-        <v>1.254874744510943</v>
+        <v>1.2548747445109429</v>
       </c>
       <c r="F160">
-        <v>1.213587576518815</v>
+        <v>1.2135875765188151</v>
       </c>
       <c r="G160">
-        <v>0.01583497643158827</v>
+        <v>1.5834976431588269E-2</v>
       </c>
       <c r="H160">
         <v>121.3587576518815</v>
@@ -5134,7 +5151,7 @@
         <v>1.583497643158827</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5148,22 +5165,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E161">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F161">
         <v>0.1753454874827379</v>
       </c>
       <c r="G161">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H161">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I161">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5177,22 +5194,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E162">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F162">
         <v>0.1753454874827379</v>
       </c>
       <c r="G162">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H162">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I162">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5206,22 +5223,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E163">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F163">
         <v>0.1753454874827379</v>
       </c>
       <c r="G163">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H163">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I163">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5235,22 +5252,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E164">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F164">
         <v>0.1753454874827379</v>
       </c>
       <c r="G164">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H164">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I164">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5264,22 +5281,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E165">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F165">
         <v>0.1753454874827379</v>
       </c>
       <c r="G165">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H165">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I165">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5293,22 +5310,22 @@
         <v>3.857600724620236</v>
       </c>
       <c r="E166">
-        <v>14.09947305929433</v>
+        <v>14.099473059294329</v>
       </c>
       <c r="F166">
         <v>0.1753454874827379</v>
       </c>
       <c r="G166">
-        <v>0.1779180149798544</v>
+        <v>0.17791801497985441</v>
       </c>
       <c r="H166">
-        <v>17.53454874827379</v>
+        <v>17.534548748273789</v>
       </c>
       <c r="I166">
-        <v>17.79180149798544</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>17.791801497985439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5337,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5366,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5395,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5424,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5453,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5511,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5540,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5569,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5598,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5609,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="D177">
-        <v>7.513167019494862</v>
+        <v>7.5131670194948619</v>
       </c>
       <c r="E177">
         <v>10.56505117707799</v>
@@ -5618,16 +5635,16 @@
         <v>0.341507591795221</v>
       </c>
       <c r="G177">
-        <v>0.1333179563293813</v>
+        <v>0.13331795632938129</v>
       </c>
       <c r="H177">
-        <v>34.1507591795221</v>
+        <v>34.150759179522097</v>
       </c>
       <c r="I177">
         <v>13.33179563293813</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5638,7 +5655,7 @@
         <v>4</v>
       </c>
       <c r="D178">
-        <v>7.513167019494862</v>
+        <v>7.5131670194948619</v>
       </c>
       <c r="E178">
         <v>10.56505117707799</v>
@@ -5647,16 +5664,16 @@
         <v>0.341507591795221</v>
       </c>
       <c r="G178">
-        <v>0.1333179563293813</v>
+        <v>0.13331795632938129</v>
       </c>
       <c r="H178">
-        <v>34.1507591795221</v>
+        <v>34.150759179522097</v>
       </c>
       <c r="I178">
         <v>13.33179563293813</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5685,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5743,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5801,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5830,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5859,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5899,13 +5916,13 @@
         <v>4</v>
       </c>
       <c r="D187">
-        <v>3.398529491264556</v>
+        <v>3.3985294912645561</v>
       </c>
       <c r="E187">
-        <v>11.89727103094764</v>
+        <v>11.897271030947641</v>
       </c>
       <c r="F187">
-        <v>0.154478613239298</v>
+        <v>0.15447861323929801</v>
       </c>
       <c r="G187">
         <v>0.1501289329467658</v>
@@ -5917,7 +5934,7 @@
         <v>15.01289329467658</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5928,13 +5945,13 @@
         <v>4</v>
       </c>
       <c r="D188">
-        <v>3.398529491264556</v>
+        <v>3.3985294912645561</v>
       </c>
       <c r="E188">
-        <v>11.89727103094764</v>
+        <v>11.897271030947641</v>
       </c>
       <c r="F188">
-        <v>0.154478613239298</v>
+        <v>0.15447861323929801</v>
       </c>
       <c r="G188">
         <v>0.1501289329467658</v>
@@ -5946,7 +5963,7 @@
         <v>15.01289329467658</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5957,13 +5974,13 @@
         <v>4</v>
       </c>
       <c r="D189">
-        <v>3.398529491264556</v>
+        <v>3.3985294912645561</v>
       </c>
       <c r="E189">
-        <v>11.89727103094764</v>
+        <v>11.897271030947641</v>
       </c>
       <c r="F189">
-        <v>0.154478613239298</v>
+        <v>0.15447861323929801</v>
       </c>
       <c r="G189">
         <v>0.1501289329467658</v>
@@ -5975,7 +5992,7 @@
         <v>15.01289329467658</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5986,13 +6003,13 @@
         <v>4</v>
       </c>
       <c r="D190">
-        <v>3.398529491264556</v>
+        <v>3.3985294912645561</v>
       </c>
       <c r="E190">
-        <v>11.89727103094764</v>
+        <v>11.897271030947641</v>
       </c>
       <c r="F190">
-        <v>0.154478613239298</v>
+        <v>0.15447861323929801</v>
       </c>
       <c r="G190">
         <v>0.1501289329467658</v>
@@ -6004,7 +6021,7 @@
         <v>15.01289329467658</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6015,13 +6032,13 @@
         <v>4</v>
       </c>
       <c r="D191">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E191">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F191">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G191">
         <v>0.1004768211335433</v>
@@ -6033,7 +6050,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6044,13 +6061,13 @@
         <v>4</v>
       </c>
       <c r="D192">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E192">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F192">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G192">
         <v>0.1004768211335433</v>
@@ -6062,7 +6079,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6073,13 +6090,13 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E193">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F193">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G193">
         <v>0.1004768211335433</v>
@@ -6091,7 +6108,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6102,13 +6119,13 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E194">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F194">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G194">
         <v>0.1004768211335433</v>
@@ -6120,7 +6137,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6134,22 +6151,22 @@
         <v>4</v>
       </c>
       <c r="E195">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F195">
         <v>0.1818181818181818</v>
       </c>
       <c r="G195">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H195">
         <v>18.18181818181818</v>
       </c>
       <c r="I195">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6163,22 +6180,22 @@
         <v>4</v>
       </c>
       <c r="E196">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F196">
         <v>0.1818181818181818</v>
       </c>
       <c r="G196">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H196">
         <v>18.18181818181818</v>
       </c>
       <c r="I196">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6189,13 +6206,13 @@
         <v>4</v>
       </c>
       <c r="D197">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E197">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F197">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G197">
         <v>0.1004768211335433</v>
@@ -6207,7 +6224,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6218,13 +6235,13 @@
         <v>4</v>
       </c>
       <c r="D198">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E198">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F198">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G198">
         <v>0.1004768211335433</v>
@@ -6236,7 +6253,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6250,22 +6267,22 @@
         <v>4</v>
       </c>
       <c r="E199">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F199">
         <v>0.1818181818181818</v>
       </c>
       <c r="G199">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H199">
         <v>18.18181818181818</v>
       </c>
       <c r="I199">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6279,22 +6296,22 @@
         <v>4</v>
       </c>
       <c r="E200">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F200">
         <v>0.1818181818181818</v>
       </c>
       <c r="G200">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H200">
         <v>18.18181818181818</v>
       </c>
       <c r="I200">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6308,22 +6325,22 @@
         <v>4</v>
       </c>
       <c r="E201">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F201">
         <v>0.1818181818181818</v>
       </c>
       <c r="G201">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H201">
         <v>18.18181818181818</v>
       </c>
       <c r="I201">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6337,22 +6354,22 @@
         <v>4</v>
       </c>
       <c r="E202">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F202">
         <v>0.1818181818181818</v>
       </c>
       <c r="G202">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H202">
         <v>18.18181818181818</v>
       </c>
       <c r="I202">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6363,13 +6380,13 @@
         <v>4</v>
       </c>
       <c r="D203">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E203">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F203">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G203">
         <v>0.1004768211335433</v>
@@ -6381,7 +6398,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6392,13 +6409,13 @@
         <v>4</v>
       </c>
       <c r="D204">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E204">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F204">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G204">
         <v>0.1004768211335433</v>
@@ -6410,7 +6427,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6421,13 +6438,13 @@
         <v>2</v>
       </c>
       <c r="D205">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E205">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F205">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G205">
         <v>0.1004768211335433</v>
@@ -6439,7 +6456,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6450,13 +6467,13 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E206">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F206">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G206">
         <v>0.1004768211335433</v>
@@ -6468,7 +6485,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6482,22 +6499,22 @@
         <v>4</v>
       </c>
       <c r="E207">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F207">
         <v>0.1818181818181818</v>
       </c>
       <c r="G207">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H207">
         <v>18.18181818181818</v>
       </c>
       <c r="I207">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6511,22 +6528,22 @@
         <v>4</v>
       </c>
       <c r="E208">
-        <v>6.380135051959584</v>
+        <v>6.3801350519595843</v>
       </c>
       <c r="F208">
         <v>0.1818181818181818</v>
       </c>
       <c r="G208">
-        <v>0.080509460103529</v>
+        <v>8.0509460103528996E-2</v>
       </c>
       <c r="H208">
         <v>18.18181818181818</v>
       </c>
       <c r="I208">
-        <v>8.050946010352899</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>8.0509460103528987</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6537,13 +6554,13 @@
         <v>2</v>
       </c>
       <c r="D209">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E209">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F209">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G209">
         <v>0.1004768211335433</v>
@@ -6555,7 +6572,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6566,13 +6583,13 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>3.071611722815881</v>
+        <v>3.0716117228158808</v>
       </c>
       <c r="E210">
-        <v>7.962488974578193</v>
+        <v>7.9624889745781928</v>
       </c>
       <c r="F210">
-        <v>0.1396187146734491</v>
+        <v>0.13961871467344911</v>
       </c>
       <c r="G210">
         <v>0.1004768211335433</v>
@@ -6584,7 +6601,7 @@
         <v>10.04768211335433</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6595,25 +6612,25 @@
         <v>5</v>
       </c>
       <c r="D211">
-        <v>15.29179606750063</v>
+        <v>15.291796067500631</v>
       </c>
       <c r="E211">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F211">
-        <v>0.6950816394318469</v>
+        <v>0.69508163943184686</v>
       </c>
       <c r="G211">
-        <v>0.007130251135270327</v>
+        <v>7.1302511352703268E-3</v>
       </c>
       <c r="H211">
-        <v>69.50816394318468</v>
+        <v>69.508163943184684</v>
       </c>
       <c r="I211">
-        <v>0.7130251135270327</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.71302511352703268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6624,25 +6641,25 @@
         <v>5</v>
       </c>
       <c r="D212">
-        <v>15.29179606750063</v>
+        <v>15.291796067500631</v>
       </c>
       <c r="E212">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F212">
-        <v>0.6950816394318469</v>
+        <v>0.69508163943184686</v>
       </c>
       <c r="G212">
-        <v>0.007130251135270327</v>
+        <v>7.1302511352703268E-3</v>
       </c>
       <c r="H212">
-        <v>69.50816394318468</v>
+        <v>69.508163943184684</v>
       </c>
       <c r="I212">
-        <v>0.7130251135270327</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.71302511352703268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6653,25 +6670,25 @@
         <v>5</v>
       </c>
       <c r="D213">
-        <v>15.29179606750063</v>
+        <v>15.291796067500631</v>
       </c>
       <c r="E213">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F213">
-        <v>0.6950816394318469</v>
+        <v>0.69508163943184686</v>
       </c>
       <c r="G213">
-        <v>0.007130251135270327</v>
+        <v>7.1302511352703268E-3</v>
       </c>
       <c r="H213">
-        <v>69.50816394318468</v>
+        <v>69.508163943184684</v>
       </c>
       <c r="I213">
-        <v>0.7130251135270327</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.71302511352703268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6682,25 +6699,25 @@
         <v>5</v>
       </c>
       <c r="D214">
-        <v>15.29179606750063</v>
+        <v>15.291796067500631</v>
       </c>
       <c r="E214">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F214">
-        <v>0.6950816394318469</v>
+        <v>0.69508163943184686</v>
       </c>
       <c r="G214">
-        <v>0.007130251135270327</v>
+        <v>7.1302511352703268E-3</v>
       </c>
       <c r="H214">
-        <v>69.50816394318468</v>
+        <v>69.508163943184684</v>
       </c>
       <c r="I214">
-        <v>0.7130251135270327</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.71302511352703268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6711,25 +6728,25 @@
         <v>5</v>
       </c>
       <c r="D215">
-        <v>15.29179606750063</v>
+        <v>15.291796067500631</v>
       </c>
       <c r="E215">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F215">
-        <v>0.6950816394318469</v>
+        <v>0.69508163943184686</v>
       </c>
       <c r="G215">
-        <v>0.007130251135270327</v>
+        <v>7.1302511352703268E-3</v>
       </c>
       <c r="H215">
-        <v>69.50816394318468</v>
+        <v>69.508163943184684</v>
       </c>
       <c r="I215">
-        <v>0.7130251135270327</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.71302511352703268</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6740,25 +6757,25 @@
         <v>5</v>
       </c>
       <c r="D216">
-        <v>15.29179606750063</v>
+        <v>15.291796067500631</v>
       </c>
       <c r="E216">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F216">
-        <v>0.6950816394318469</v>
+        <v>0.69508163943184686</v>
       </c>
       <c r="G216">
-        <v>0.007130251135270327</v>
+        <v>7.1302511352703268E-3</v>
       </c>
       <c r="H216">
-        <v>69.50816394318468</v>
+        <v>69.508163943184684</v>
       </c>
       <c r="I216">
-        <v>0.7130251135270327</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.71302511352703268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6769,25 +6786,25 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>3.748428057964756</v>
+        <v>3.7484280579647562</v>
       </c>
       <c r="E217">
-        <v>28.82542195833745</v>
+        <v>28.825421958337451</v>
       </c>
       <c r="F217">
-        <v>0.1703830935438526</v>
+        <v>0.17038309354385259</v>
       </c>
       <c r="G217">
-        <v>0.3637413848174541</v>
+        <v>0.36374138481745411</v>
       </c>
       <c r="H217">
-        <v>17.03830935438526</v>
+        <v>17.038309354385259</v>
       </c>
       <c r="I217">
-        <v>36.37413848174541</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>36.374138481745412</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6798,25 +6815,25 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>3.748428057964756</v>
+        <v>3.7484280579647562</v>
       </c>
       <c r="E218">
-        <v>28.82542195833745</v>
+        <v>28.825421958337451</v>
       </c>
       <c r="F218">
-        <v>0.1703830935438526</v>
+        <v>0.17038309354385259</v>
       </c>
       <c r="G218">
-        <v>0.3637413848174541</v>
+        <v>0.36374138481745411</v>
       </c>
       <c r="H218">
-        <v>17.03830935438526</v>
+        <v>17.038309354385259</v>
       </c>
       <c r="I218">
-        <v>36.37413848174541</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>36.374138481745412</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6827,16 +6844,16 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E219">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F219">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G219">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H219">
         <v>15.01200441024527</v>
@@ -6845,7 +6862,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6856,16 +6873,16 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E220">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F220">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G220">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H220">
         <v>15.01200441024527</v>
@@ -6874,7 +6891,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6891,19 +6908,19 @@
         <v>11.96702319059917</v>
       </c>
       <c r="F221">
-        <v>0.1241122103484733</v>
+        <v>0.12411221034847331</v>
       </c>
       <c r="G221">
-        <v>0.1510091194426418</v>
+        <v>0.15100911944264181</v>
       </c>
       <c r="H221">
-        <v>12.41122103484732</v>
+        <v>12.411221034847321</v>
       </c>
       <c r="I221">
         <v>15.10091194426418</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6920,19 +6937,19 @@
         <v>11.96702319059917</v>
       </c>
       <c r="F222">
-        <v>0.1241122103484733</v>
+        <v>0.12411221034847331</v>
       </c>
       <c r="G222">
-        <v>0.1510091194426418</v>
+        <v>0.15100911944264181</v>
       </c>
       <c r="H222">
-        <v>12.41122103484732</v>
+        <v>12.411221034847321</v>
       </c>
       <c r="I222">
         <v>15.10091194426418</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6943,16 +6960,16 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E223">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F223">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G223">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H223">
         <v>15.01200441024527</v>
@@ -6961,7 +6978,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6972,16 +6989,16 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E224">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F224">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G224">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H224">
         <v>15.01200441024527</v>
@@ -6990,7 +7007,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7001,16 +7018,16 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E225">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F225">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G225">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H225">
         <v>15.01200441024527</v>
@@ -7019,7 +7036,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7030,16 +7047,16 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E226">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F226">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G226">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H226">
         <v>15.01200441024527</v>
@@ -7048,7 +7065,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7059,16 +7076,16 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E227">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F227">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G227">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H227">
         <v>15.01200441024527</v>
@@ -7077,7 +7094,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7088,16 +7105,16 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E228">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F228">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G228">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H228">
         <v>15.01200441024527</v>
@@ -7106,7 +7123,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7117,16 +7134,16 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E229">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F229">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G229">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H229">
         <v>15.01200441024527</v>
@@ -7135,7 +7152,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7146,16 +7163,16 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E230">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F230">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G230">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H230">
         <v>15.01200441024527</v>
@@ -7164,7 +7181,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7175,16 +7192,16 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E231">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F231">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G231">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H231">
         <v>15.01200441024527</v>
@@ -7193,7 +7210,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7204,16 +7221,16 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E232">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F232">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G232">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H232">
         <v>15.01200441024527</v>
@@ -7222,7 +7239,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7233,16 +7250,16 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E233">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F233">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G233">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H233">
         <v>15.01200441024527</v>
@@ -7251,7 +7268,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7262,16 +7279,16 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E234">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F234">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G234">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H234">
         <v>15.01200441024527</v>
@@ -7280,7 +7297,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7294,22 +7311,22 @@
         <v>12.36733702007993</v>
       </c>
       <c r="E235">
-        <v>9.172795769888673</v>
+        <v>9.1727957698886726</v>
       </c>
       <c r="F235">
-        <v>0.5621516827309057</v>
+        <v>0.56215168273090566</v>
       </c>
       <c r="G235">
         <v>0.1157494048416501</v>
       </c>
       <c r="H235">
-        <v>56.21516827309057</v>
+        <v>56.215168273090569</v>
       </c>
       <c r="I235">
-        <v>11.574940484165</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>11.574940484164999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7323,22 +7340,22 @@
         <v>12.36733702007993</v>
       </c>
       <c r="E236">
-        <v>9.172795769888673</v>
+        <v>9.1727957698886726</v>
       </c>
       <c r="F236">
-        <v>0.5621516827309057</v>
+        <v>0.56215168273090566</v>
       </c>
       <c r="G236">
         <v>0.1157494048416501</v>
       </c>
       <c r="H236">
-        <v>56.21516827309057</v>
+        <v>56.215168273090569</v>
       </c>
       <c r="I236">
-        <v>11.574940484165</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>11.574940484164999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7349,16 +7366,16 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E237">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F237">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G237">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H237">
         <v>15.01200441024527</v>
@@ -7367,7 +7384,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7378,16 +7395,16 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E238">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F238">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G238">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H238">
         <v>15.01200441024527</v>
@@ -7396,7 +7413,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7413,19 +7430,19 @@
         <v>24.06178026761128</v>
       </c>
       <c r="F239">
-        <v>0.1102449514818132</v>
+        <v>0.11024495148181319</v>
       </c>
       <c r="G239">
-        <v>0.3036300834854809</v>
+        <v>0.30363008348548087</v>
       </c>
       <c r="H239">
         <v>11.02449514818132</v>
       </c>
       <c r="I239">
-        <v>30.36300834854809</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>30.363008348548089</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7442,19 +7459,19 @@
         <v>24.06178026761128</v>
       </c>
       <c r="F240">
-        <v>0.1102449514818132</v>
+        <v>0.11024495148181319</v>
       </c>
       <c r="G240">
-        <v>0.3036300834854809</v>
+        <v>0.30363008348548087</v>
       </c>
       <c r="H240">
         <v>11.02449514818132</v>
       </c>
       <c r="I240">
-        <v>30.36300834854809</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>30.363008348548089</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7465,16 +7482,16 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E241">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F241">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G241">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H241">
         <v>15.01200441024527</v>
@@ -7483,7 +7500,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7494,16 +7511,16 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>3.302640970253959</v>
+        <v>3.3026409702539592</v>
       </c>
       <c r="E242">
-        <v>19.66307491261574</v>
+        <v>19.663074912615741</v>
       </c>
       <c r="F242">
-        <v>0.1501200441024527</v>
+        <v>0.15012004410245269</v>
       </c>
       <c r="G242">
-        <v>0.2481238300282876</v>
+        <v>0.24812383002828761</v>
       </c>
       <c r="H242">
         <v>15.01200441024527</v>
@@ -7512,7 +7529,7 @@
         <v>24.81238300282876</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7523,25 +7540,25 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>3.748428057964756</v>
+        <v>3.7484280579647562</v>
       </c>
       <c r="E243">
-        <v>28.82542195833745</v>
+        <v>28.825421958337451</v>
       </c>
       <c r="F243">
-        <v>0.1703830935438526</v>
+        <v>0.17038309354385259</v>
       </c>
       <c r="G243">
-        <v>0.3637413848174541</v>
+        <v>0.36374138481745411</v>
       </c>
       <c r="H243">
-        <v>17.03830935438526</v>
+        <v>17.038309354385259</v>
       </c>
       <c r="I243">
-        <v>36.37413848174541</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+        <v>36.374138481745412</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7552,25 +7569,25 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>3.748428057964756</v>
+        <v>3.7484280579647562</v>
       </c>
       <c r="E244">
-        <v>28.82542195833745</v>
+        <v>28.825421958337451</v>
       </c>
       <c r="F244">
-        <v>0.1703830935438526</v>
+        <v>0.17038309354385259</v>
       </c>
       <c r="G244">
-        <v>0.3637413848174541</v>
+        <v>0.36374138481745411</v>
       </c>
       <c r="H244">
-        <v>17.03830935438526</v>
+        <v>17.038309354385259</v>
       </c>
       <c r="I244">
-        <v>36.37413848174541</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+        <v>36.374138481745412</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7581,25 +7598,25 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>3.748428057964756</v>
+        <v>3.7484280579647562</v>
       </c>
       <c r="E245">
-        <v>28.82542195833745</v>
+        <v>28.825421958337451</v>
       </c>
       <c r="F245">
-        <v>0.1703830935438526</v>
+        <v>0.17038309354385259</v>
       </c>
       <c r="G245">
-        <v>0.3637413848174541</v>
+        <v>0.36374138481745411</v>
       </c>
       <c r="H245">
-        <v>17.03830935438526</v>
+        <v>17.038309354385259</v>
       </c>
       <c r="I245">
-        <v>36.37413848174541</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+        <v>36.374138481745412</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7610,25 +7627,25 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>3.748428057964756</v>
+        <v>3.7484280579647562</v>
       </c>
       <c r="E246">
-        <v>28.82542195833745</v>
+        <v>28.825421958337451</v>
       </c>
       <c r="F246">
-        <v>0.1703830935438526</v>
+        <v>0.17038309354385259</v>
       </c>
       <c r="G246">
-        <v>0.3637413848174541</v>
+        <v>0.36374138481745411</v>
       </c>
       <c r="H246">
-        <v>17.03830935438526</v>
+        <v>17.038309354385259</v>
       </c>
       <c r="I246">
-        <v>36.37413848174541</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>36.374138481745412</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7645,19 +7662,19 @@
         <v>24.06178026761128</v>
       </c>
       <c r="F247">
-        <v>0.1102449514818132</v>
+        <v>0.11024495148181319</v>
       </c>
       <c r="G247">
-        <v>0.3036300834854809</v>
+        <v>0.30363008348548087</v>
       </c>
       <c r="H247">
         <v>11.02449514818132</v>
       </c>
       <c r="I247">
-        <v>30.36300834854809</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+        <v>30.363008348548089</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7674,19 +7691,19 @@
         <v>24.06178026761128</v>
       </c>
       <c r="F248">
-        <v>0.1102449514818132</v>
+        <v>0.11024495148181319</v>
       </c>
       <c r="G248">
-        <v>0.3036300834854809</v>
+        <v>0.30363008348548087</v>
       </c>
       <c r="H248">
         <v>11.02449514818132</v>
       </c>
       <c r="I248">
-        <v>30.36300834854809</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+        <v>30.363008348548089</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7697,25 +7714,25 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E249">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F249">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G249">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H249">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I249">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7726,25 +7743,25 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E250">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F250">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G250">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H250">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I250">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7755,25 +7772,25 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E251">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F251">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G251">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H251">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I251">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7784,25 +7801,25 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E252">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F252">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G252">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H252">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I252">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7813,25 +7830,25 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E253">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F253">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G253">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H253">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I253">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7842,25 +7859,25 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E254">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F254">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G254">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H254">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I254">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7871,25 +7888,25 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E255">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F255">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G255">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H255">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I255">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7900,25 +7917,25 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>5.291495410363452</v>
+        <v>5.2914954103634519</v>
       </c>
       <c r="E256">
-        <v>15.69333452656137</v>
+        <v>15.693334526561371</v>
       </c>
       <c r="F256">
-        <v>0.2405225186528842</v>
+        <v>0.24052251865288421</v>
       </c>
       <c r="G256">
-        <v>0.198030587075029</v>
+        <v>0.19803058707502899</v>
       </c>
       <c r="H256">
-        <v>24.05225186528842</v>
+        <v>24.052251865288419</v>
       </c>
       <c r="I256">
-        <v>19.8030587075029</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>19.803058707502899</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7929,25 +7946,25 @@
         <v>5</v>
       </c>
       <c r="D257">
-        <v>1.517819759235351</v>
+        <v>1.5178197592353511</v>
       </c>
       <c r="E257">
-        <v>27.42824093104108</v>
+        <v>27.428240931041081</v>
       </c>
       <c r="F257">
-        <v>0.06899180723797055</v>
+        <v>6.8991807237970548E-2</v>
       </c>
       <c r="G257">
-        <v>0.3461106780599261</v>
+        <v>0.34611067805992612</v>
       </c>
       <c r="H257">
-        <v>6.899180723797055</v>
+        <v>6.8991807237970546</v>
       </c>
       <c r="I257">
-        <v>34.6110678059926</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>34.611067805992597</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7958,25 +7975,25 @@
         <v>5</v>
       </c>
       <c r="D258">
-        <v>1.517819759235351</v>
+        <v>1.5178197592353511</v>
       </c>
       <c r="E258">
-        <v>27.42824093104108</v>
+        <v>27.428240931041081</v>
       </c>
       <c r="F258">
-        <v>0.06899180723797055</v>
+        <v>6.8991807237970548E-2</v>
       </c>
       <c r="G258">
-        <v>0.3461106780599261</v>
+        <v>0.34611067805992612</v>
       </c>
       <c r="H258">
-        <v>6.899180723797055</v>
+        <v>6.8991807237970546</v>
       </c>
       <c r="I258">
-        <v>34.6110678059926</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>34.611067805992597</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7987,25 +8004,25 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>10.51491765474275</v>
+        <v>10.514917654742749</v>
       </c>
       <c r="E259">
         <v>1.042693415732693</v>
       </c>
       <c r="F259">
-        <v>0.4779508024883066</v>
+        <v>0.47795080248830663</v>
       </c>
       <c r="G259">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H259">
-        <v>47.79508024883066</v>
+        <v>47.795080248830658</v>
       </c>
       <c r="I259">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8016,25 +8033,25 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>10.51491765474275</v>
+        <v>10.514917654742749</v>
       </c>
       <c r="E260">
         <v>1.042693415732693</v>
       </c>
       <c r="F260">
-        <v>0.4779508024883066</v>
+        <v>0.47795080248830663</v>
       </c>
       <c r="G260">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H260">
-        <v>47.79508024883066</v>
+        <v>47.795080248830658</v>
       </c>
       <c r="I260">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8045,25 +8062,25 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>10.51491765474275</v>
+        <v>10.514917654742749</v>
       </c>
       <c r="E261">
         <v>1.042693415732693</v>
       </c>
       <c r="F261">
-        <v>0.4779508024883066</v>
+        <v>0.47795080248830663</v>
       </c>
       <c r="G261">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H261">
-        <v>47.79508024883066</v>
+        <v>47.795080248830658</v>
       </c>
       <c r="I261">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8074,25 +8091,25 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>10.51491765474275</v>
+        <v>10.514917654742749</v>
       </c>
       <c r="E262">
         <v>1.042693415732693</v>
       </c>
       <c r="F262">
-        <v>0.4779508024883066</v>
+        <v>0.47795080248830663</v>
       </c>
       <c r="G262">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H262">
-        <v>47.79508024883066</v>
+        <v>47.795080248830658</v>
       </c>
       <c r="I262">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8103,25 +8120,25 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>10.51491765474275</v>
+        <v>10.514917654742749</v>
       </c>
       <c r="E263">
         <v>1.042693415732693</v>
       </c>
       <c r="F263">
-        <v>0.4779508024883066</v>
+        <v>0.47795080248830663</v>
       </c>
       <c r="G263">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H263">
-        <v>47.79508024883066</v>
+        <v>47.795080248830658</v>
       </c>
       <c r="I263">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8132,25 +8149,25 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>10.51491765474275</v>
+        <v>10.514917654742749</v>
       </c>
       <c r="E264">
         <v>1.042693415732693</v>
       </c>
       <c r="F264">
-        <v>0.4779508024883066</v>
+        <v>0.47795080248830663</v>
       </c>
       <c r="G264">
-        <v>0.01315750893523177</v>
+        <v>1.3157508935231771E-2</v>
       </c>
       <c r="H264">
-        <v>47.79508024883066</v>
+        <v>47.795080248830658</v>
       </c>
       <c r="I264">
         <v>1.315750893523177</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8164,22 +8181,22 @@
         <v>12.12043955712207</v>
       </c>
       <c r="E265">
-        <v>13.05460409907715</v>
+        <v>13.054604099077149</v>
       </c>
       <c r="F265">
-        <v>0.5509290707782761</v>
+        <v>0.55092907077827613</v>
       </c>
       <c r="G265">
         <v>0.1647330533480181</v>
       </c>
       <c r="H265">
-        <v>55.09290707782761</v>
+        <v>55.092907077827611</v>
       </c>
       <c r="I265">
-        <v>16.47330533480181</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>16.473305334801811</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8193,22 +8210,22 @@
         <v>12.12043955712207</v>
       </c>
       <c r="E266">
-        <v>13.05460409907715</v>
+        <v>13.054604099077149</v>
       </c>
       <c r="F266">
-        <v>0.5509290707782761</v>
+        <v>0.55092907077827613</v>
       </c>
       <c r="G266">
         <v>0.1647330533480181</v>
       </c>
       <c r="H266">
-        <v>55.09290707782761</v>
+        <v>55.092907077827611</v>
       </c>
       <c r="I266">
-        <v>16.47330533480181</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>16.473305334801811</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8225,19 +8242,19 @@
         <v>11.75854060106003</v>
       </c>
       <c r="F267">
-        <v>0.607475131880816</v>
+        <v>0.60747513188081603</v>
       </c>
       <c r="G267">
-        <v>0.1483783254879548</v>
+        <v>0.14837832548795479</v>
       </c>
       <c r="H267">
-        <v>60.74751318808161</v>
+        <v>60.747513188081612</v>
       </c>
       <c r="I267">
-        <v>14.83783254879548</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>14.837832548795481</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8254,19 +8271,19 @@
         <v>11.75854060106003</v>
       </c>
       <c r="F268">
-        <v>0.607475131880816</v>
+        <v>0.60747513188081603</v>
       </c>
       <c r="G268">
-        <v>0.1483783254879548</v>
+        <v>0.14837832548795479</v>
       </c>
       <c r="H268">
-        <v>60.74751318808161</v>
+        <v>60.747513188081612</v>
       </c>
       <c r="I268">
-        <v>14.83783254879548</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+        <v>14.837832548795481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8277,25 +8294,25 @@
         <v>7</v>
       </c>
       <c r="D269">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E269">
         <v>15.42956561483852</v>
       </c>
       <c r="F269">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G269">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H269">
         <v>58.33121718342089</v>
       </c>
       <c r="I269">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8306,25 +8323,25 @@
         <v>7</v>
       </c>
       <c r="D270">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E270">
         <v>15.42956561483852</v>
       </c>
       <c r="F270">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G270">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H270">
         <v>58.33121718342089</v>
       </c>
       <c r="I270">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8353,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8382,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8411,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8440,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8469,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8498,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8527,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8556,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8585,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8614,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8643,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8672,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8730,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8759,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8788,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -8799,25 +8816,25 @@
         <v>7</v>
       </c>
       <c r="D287">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E287">
         <v>15.42956561483852</v>
       </c>
       <c r="F287">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G287">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H287">
         <v>58.33121718342089</v>
       </c>
       <c r="I287">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -8828,25 +8845,25 @@
         <v>7</v>
       </c>
       <c r="D288">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E288">
         <v>15.42956561483852</v>
       </c>
       <c r="F288">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G288">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H288">
         <v>58.33121718342089</v>
       </c>
       <c r="I288">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -8857,25 +8874,25 @@
         <v>7</v>
       </c>
       <c r="D289">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E289">
         <v>15.42956561483852</v>
       </c>
       <c r="F289">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G289">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H289">
         <v>58.33121718342089</v>
       </c>
       <c r="I289">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -8886,25 +8903,25 @@
         <v>7</v>
       </c>
       <c r="D290">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E290">
         <v>15.42956561483852</v>
       </c>
       <c r="F290">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G290">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H290">
         <v>58.33121718342089</v>
       </c>
       <c r="I290">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8915,25 +8932,25 @@
         <v>7</v>
       </c>
       <c r="D291">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E291">
         <v>15.42956561483852</v>
       </c>
       <c r="F291">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G291">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H291">
         <v>58.33121718342089</v>
       </c>
       <c r="I291">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8944,25 +8961,25 @@
         <v>7</v>
       </c>
       <c r="D292">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E292">
         <v>15.42956561483852</v>
       </c>
       <c r="F292">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G292">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H292">
         <v>58.33121718342089</v>
       </c>
       <c r="I292">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8973,25 +8990,25 @@
         <v>7</v>
       </c>
       <c r="D293">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E293">
         <v>15.42956561483852</v>
       </c>
       <c r="F293">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G293">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H293">
         <v>58.33121718342089</v>
       </c>
       <c r="I293">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9002,25 +9019,25 @@
         <v>7</v>
       </c>
       <c r="D294">
-        <v>12.8328677803526</v>
+        <v>12.832867780352601</v>
       </c>
       <c r="E294">
         <v>15.42956561483852</v>
       </c>
       <c r="F294">
-        <v>0.5833121718342089</v>
+        <v>0.58331217183420891</v>
       </c>
       <c r="G294">
-        <v>0.1947021477078436</v>
+        <v>0.19470214770784361</v>
       </c>
       <c r="H294">
         <v>58.33121718342089</v>
       </c>
       <c r="I294">
-        <v>19.47021477078436</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>19.470214770784359</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9049,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9078,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9089,25 +9106,25 @@
         <v>7</v>
       </c>
       <c r="D297">
-        <v>15.01562118716424</v>
+        <v>15.015621187164241</v>
       </c>
       <c r="E297">
-        <v>14.52970589993413</v>
+        <v>14.529705899934131</v>
       </c>
       <c r="F297">
-        <v>0.6825282357801929</v>
+        <v>0.68252823578019295</v>
       </c>
       <c r="G297">
-        <v>0.1833470244658023</v>
+        <v>0.18334702446580231</v>
       </c>
       <c r="H297">
-        <v>68.25282357801929</v>
+        <v>68.252823578019289</v>
       </c>
       <c r="I297">
-        <v>18.33470244658023</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>18.334702446580231</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9118,25 +9135,25 @@
         <v>7</v>
       </c>
       <c r="D298">
-        <v>15.01562118716424</v>
+        <v>15.015621187164241</v>
       </c>
       <c r="E298">
-        <v>14.52970589993413</v>
+        <v>14.529705899934131</v>
       </c>
       <c r="F298">
-        <v>0.6825282357801929</v>
+        <v>0.68252823578019295</v>
       </c>
       <c r="G298">
-        <v>0.1833470244658023</v>
+        <v>0.18334702446580231</v>
       </c>
       <c r="H298">
-        <v>68.25282357801929</v>
+        <v>68.252823578019289</v>
       </c>
       <c r="I298">
-        <v>18.33470244658023</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>18.334702446580231</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9147,7 +9164,7 @@
         <v>7</v>
       </c>
       <c r="D299">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E299">
         <v>14.96375653207353</v>
@@ -9159,13 +9176,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H299">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I299">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9176,7 +9193,7 @@
         <v>7</v>
       </c>
       <c r="D300">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E300">
         <v>14.96375653207353</v>
@@ -9188,13 +9205,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H300">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I300">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9205,7 +9222,7 @@
         <v>7</v>
       </c>
       <c r="D301">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E301">
         <v>14.96375653207353</v>
@@ -9217,13 +9234,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H301">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I301">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -9234,7 +9251,7 @@
         <v>7</v>
       </c>
       <c r="D302">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E302">
         <v>14.96375653207353</v>
@@ -9246,13 +9263,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H302">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I302">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9263,25 +9280,25 @@
         <v>7</v>
       </c>
       <c r="D303">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E303">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F303">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G303">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H303">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I303">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9292,25 +9309,25 @@
         <v>7</v>
       </c>
       <c r="D304">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E304">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F304">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G304">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H304">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I304">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9339,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9350,25 +9367,25 @@
         <v>7</v>
       </c>
       <c r="D306">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E306">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F306">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G306">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H306">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I306">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -9379,25 +9396,25 @@
         <v>7</v>
       </c>
       <c r="D307">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E307">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F307">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G307">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H307">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I307">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9408,7 +9425,7 @@
         <v>7</v>
       </c>
       <c r="D308">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E308">
         <v>14.96375653207353</v>
@@ -9420,13 +9437,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H308">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I308">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9437,7 +9454,7 @@
         <v>7</v>
       </c>
       <c r="D309">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E309">
         <v>14.96375653207353</v>
@@ -9449,13 +9466,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H309">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I309">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -9466,25 +9483,25 @@
         <v>7</v>
       </c>
       <c r="D310">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E310">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F310">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G310">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H310">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I310">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -9495,25 +9512,25 @@
         <v>7</v>
       </c>
       <c r="D311">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E311">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F311">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G311">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H311">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I311">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -9524,7 +9541,7 @@
         <v>7</v>
       </c>
       <c r="D312">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E312">
         <v>14.96375653207353</v>
@@ -9536,13 +9553,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H312">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I312">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -9553,7 +9570,7 @@
         <v>7</v>
       </c>
       <c r="D313">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E313">
         <v>14.96375653207353</v>
@@ -9565,13 +9582,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H313">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I313">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9582,25 +9599,25 @@
         <v>7</v>
       </c>
       <c r="D314">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E314">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F314">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G314">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H314">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I314">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9611,25 +9628,25 @@
         <v>7</v>
       </c>
       <c r="D315">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E315">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F315">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G315">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H315">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I315">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -9640,25 +9657,25 @@
         <v>7</v>
       </c>
       <c r="D316">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E316">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F316">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G316">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H316">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I316">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -9669,25 +9686,25 @@
         <v>7</v>
       </c>
       <c r="D317">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E317">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F317">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G317">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H317">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I317">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -9698,25 +9715,25 @@
         <v>7</v>
       </c>
       <c r="D318">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E318">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F318">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G318">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H318">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I318">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -9727,25 +9744,25 @@
         <v>7</v>
       </c>
       <c r="D319">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E319">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F319">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G319">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H319">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I319">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9756,25 +9773,25 @@
         <v>7</v>
       </c>
       <c r="D320">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E320">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F320">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G320">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H320">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I320">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9785,25 +9802,25 @@
         <v>7</v>
       </c>
       <c r="D321">
-        <v>16.95585369269929</v>
+        <v>16.955853692699289</v>
       </c>
       <c r="E321">
-        <v>15.37300514010846</v>
+        <v>15.373005140108461</v>
       </c>
       <c r="F321">
-        <v>0.7707206223954224</v>
+        <v>0.77072062239542238</v>
       </c>
       <c r="G321">
-        <v>0.193988424056756</v>
+        <v>0.19398842405675601</v>
       </c>
       <c r="H321">
-        <v>77.07206223954223</v>
+        <v>77.072062239542234</v>
       </c>
       <c r="I321">
-        <v>19.3988424056756</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
+        <v>19.398842405675602</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9814,7 +9831,7 @@
         <v>7</v>
       </c>
       <c r="D322">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E322">
         <v>14.96375653207353</v>
@@ -9826,13 +9843,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H322">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I322">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9843,7 +9860,7 @@
         <v>7</v>
       </c>
       <c r="D323">
-        <v>15.98484500494128</v>
+        <v>15.984845004941279</v>
       </c>
       <c r="E323">
         <v>14.96375653207353</v>
@@ -9855,13 +9872,13 @@
         <v>0.1888242097865748</v>
       </c>
       <c r="H323">
-        <v>72.65838638609674</v>
+        <v>72.658386386096737</v>
       </c>
       <c r="I323">
-        <v>18.88242097865748</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
+        <v>18.882420978657478</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9890,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -9919,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9948,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9977,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9988,13 +10005,13 @@
         <v>2</v>
       </c>
       <c r="D328">
-        <v>7.015314219044692</v>
+        <v>7.0153142190446918</v>
       </c>
       <c r="E328">
-        <v>14.65037703851291</v>
+        <v>14.650377038512911</v>
       </c>
       <c r="F328">
-        <v>0.318877919047486</v>
+        <v>0.31887791904748602</v>
       </c>
       <c r="G328">
         <v>0.1848697458718439</v>
@@ -10003,10 +10020,10 @@
         <v>31.8877919047486</v>
       </c>
       <c r="I328">
-        <v>18.48697458718439</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
+        <v>18.486974587184388</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -10017,13 +10034,13 @@
         <v>2</v>
       </c>
       <c r="D329">
-        <v>7.015314219044692</v>
+        <v>7.0153142190446918</v>
       </c>
       <c r="E329">
-        <v>14.65037703851291</v>
+        <v>14.650377038512911</v>
       </c>
       <c r="F329">
-        <v>0.318877919047486</v>
+        <v>0.31887791904748602</v>
       </c>
       <c r="G329">
         <v>0.1848697458718439</v>
@@ -10032,10 +10049,10 @@
         <v>31.8877919047486</v>
       </c>
       <c r="I329">
-        <v>18.48697458718439</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
+        <v>18.486974587184388</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -10052,19 +10069,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F330">
-        <v>0.4573993671915738</v>
+        <v>0.45739936719157381</v>
       </c>
       <c r="G330">
         <v>0.1178067136478812</v>
       </c>
       <c r="H330">
-        <v>45.73993671915738</v>
+        <v>45.739936719157377</v>
       </c>
       <c r="I330">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -10081,19 +10098,19 @@
         <v>9.335831368568158</v>
       </c>
       <c r="F331">
-        <v>0.4573993671915738</v>
+        <v>0.45739936719157381</v>
       </c>
       <c r="G331">
         <v>0.1178067136478812</v>
       </c>
       <c r="H331">
-        <v>45.73993671915738</v>
+        <v>45.739936719157377</v>
       </c>
       <c r="I331">
         <v>11.78067136478812</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -10104,25 +10121,25 @@
         <v>3</v>
       </c>
       <c r="D332">
-        <v>16.30401136961146</v>
+        <v>16.304011369611459</v>
       </c>
       <c r="E332">
-        <v>5.870141604390852</v>
+        <v>5.8701416043908523</v>
       </c>
       <c r="F332">
-        <v>0.7410914258914303</v>
+        <v>0.74109142589143029</v>
       </c>
       <c r="G332">
-        <v>0.07407396982225589</v>
+        <v>7.4073969822255892E-2</v>
       </c>
       <c r="H332">
-        <v>74.10914258914303</v>
+        <v>74.109142589143033</v>
       </c>
       <c r="I332">
-        <v>7.407396982225589</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
+        <v>7.4073969822255892</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -10133,25 +10150,25 @@
         <v>3</v>
       </c>
       <c r="D333">
-        <v>16.30401136961146</v>
+        <v>16.304011369611459</v>
       </c>
       <c r="E333">
-        <v>5.870141604390852</v>
+        <v>5.8701416043908523</v>
       </c>
       <c r="F333">
-        <v>0.7410914258914303</v>
+        <v>0.74109142589143029</v>
       </c>
       <c r="G333">
-        <v>0.07407396982225589</v>
+        <v>7.4073969822255892E-2</v>
       </c>
       <c r="H333">
-        <v>74.10914258914303</v>
+        <v>74.109142589143033</v>
       </c>
       <c r="I333">
-        <v>7.407396982225589</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
+        <v>7.4073969822255892</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -10162,16 +10179,16 @@
         <v>3</v>
       </c>
       <c r="D334">
-        <v>16.71571035262931</v>
+        <v>16.715710352629308</v>
       </c>
       <c r="E334">
-        <v>0.9309260622646462</v>
+        <v>0.93092606226464625</v>
       </c>
       <c r="F334">
-        <v>0.759805016028605</v>
+        <v>0.75980501602860495</v>
       </c>
       <c r="G334">
-        <v>0.01174714235025653</v>
+        <v>1.1747142350256531E-2</v>
       </c>
       <c r="H334">
         <v>75.9805016028605</v>
@@ -10180,7 +10197,7 @@
         <v>1.174714235025653</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -10191,16 +10208,16 @@
         <v>3</v>
       </c>
       <c r="D335">
-        <v>16.71571035262931</v>
+        <v>16.715710352629308</v>
       </c>
       <c r="E335">
-        <v>0.9309260622646462</v>
+        <v>0.93092606226464625</v>
       </c>
       <c r="F335">
-        <v>0.759805016028605</v>
+        <v>0.75980501602860495</v>
       </c>
       <c r="G335">
-        <v>0.01174714235025653</v>
+        <v>1.1747142350256531E-2</v>
       </c>
       <c r="H335">
         <v>75.9805016028605</v>
@@ -10209,7 +10226,7 @@
         <v>1.174714235025653</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -10223,22 +10240,22 @@
         <v>15.52109143252695</v>
       </c>
       <c r="E336">
-        <v>0.7965182865105191</v>
+        <v>0.79651828651051915</v>
       </c>
       <c r="F336">
-        <v>0.7055041560239523</v>
+        <v>0.70550415602395233</v>
       </c>
       <c r="G336">
-        <v>0.01005108147199085</v>
+        <v>1.0051081471990851E-2</v>
       </c>
       <c r="H336">
-        <v>70.55041560239523</v>
+        <v>70.550415602395233</v>
       </c>
       <c r="I336">
         <v>1.005108147199085</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -10252,22 +10269,22 @@
         <v>15.52109143252695</v>
       </c>
       <c r="E337">
-        <v>0.7965182865105191</v>
+        <v>0.79651828651051915</v>
       </c>
       <c r="F337">
-        <v>0.7055041560239523</v>
+        <v>0.70550415602395233</v>
       </c>
       <c r="G337">
-        <v>0.01005108147199085</v>
+        <v>1.0051081471990851E-2</v>
       </c>
       <c r="H337">
-        <v>70.55041560239523</v>
+        <v>70.550415602395233</v>
       </c>
       <c r="I337">
         <v>1.005108147199085</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -10278,25 +10295,25 @@
         <v>2</v>
       </c>
       <c r="D338">
-        <v>17.48219467801188</v>
+        <v>17.482194678011879</v>
       </c>
       <c r="E338">
         <v>1.679280163872434</v>
       </c>
       <c r="F338">
-        <v>0.7946452126369037</v>
+        <v>0.79464521263690369</v>
       </c>
       <c r="G338">
-        <v>0.02119045102570538</v>
+        <v>2.1190451025705381E-2</v>
       </c>
       <c r="H338">
-        <v>79.46452126369037</v>
+        <v>79.464521263690372</v>
       </c>
       <c r="I338">
-        <v>2.119045102570538</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+        <v>2.1190451025705381</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -10307,25 +10324,25 @@
         <v>2</v>
       </c>
       <c r="D339">
-        <v>17.48219467801188</v>
+        <v>17.482194678011879</v>
       </c>
       <c r="E339">
         <v>1.679280163872434</v>
       </c>
       <c r="F339">
-        <v>0.7946452126369037</v>
+        <v>0.79464521263690369</v>
       </c>
       <c r="G339">
-        <v>0.02119045102570538</v>
+        <v>2.1190451025705381E-2</v>
       </c>
       <c r="H339">
-        <v>79.46452126369037</v>
+        <v>79.464521263690372</v>
       </c>
       <c r="I339">
-        <v>2.119045102570538</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
+        <v>2.1190451025705381</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -10336,25 +10353,25 @@
         <v>2</v>
       </c>
       <c r="D340">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E340">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F340">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G340">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H340">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I340">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -10365,25 +10382,25 @@
         <v>2</v>
       </c>
       <c r="D341">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E341">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F341">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G341">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H341">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I341">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -10394,25 +10411,25 @@
         <v>2</v>
       </c>
       <c r="D342">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E342">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F342">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G342">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H342">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I342">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -10423,25 +10440,25 @@
         <v>2</v>
       </c>
       <c r="D343">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E343">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F343">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G343">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H343">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I343">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -10452,25 +10469,25 @@
         <v>2</v>
       </c>
       <c r="D344">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E344">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F344">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G344">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H344">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I344">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -10481,25 +10498,25 @@
         <v>2</v>
       </c>
       <c r="D345">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E345">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F345">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G345">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H345">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I345">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -10510,25 +10527,25 @@
         <v>2</v>
       </c>
       <c r="D346">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E346">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F346">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G346">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H346">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I346">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -10539,25 +10556,25 @@
         <v>2</v>
       </c>
       <c r="D347">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E347">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F347">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G347">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H347">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I347">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10568,25 +10585,25 @@
         <v>2</v>
       </c>
       <c r="D348">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E348">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F348">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G348">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H348">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I348">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -10597,25 +10614,25 @@
         <v>2</v>
       </c>
       <c r="D349">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E349">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F349">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G349">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H349">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I349">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10626,25 +10643,25 @@
         <v>2</v>
       </c>
       <c r="D350">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E350">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F350">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G350">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H350">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I350">
-        <v>5.596052300486665</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
+        <v>5.5960523004866651</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -10655,22 +10672,22 @@
         <v>2</v>
       </c>
       <c r="D351">
-        <v>19.29006133572633</v>
+        <v>19.290061335726332</v>
       </c>
       <c r="E351">
-        <v>4.434704864375192</v>
+        <v>4.4347048643751918</v>
       </c>
       <c r="F351">
-        <v>0.8768209698057423</v>
+        <v>0.87682096980574231</v>
       </c>
       <c r="G351">
-        <v>0.05596052300486665</v>
+        <v>5.5960523004866647E-2</v>
       </c>
       <c r="H351">
-        <v>87.68209698057423</v>
+        <v>87.682096980574229</v>
       </c>
       <c r="I351">
-        <v>5.596052300486665</v>
+        <v>5.5960523004866651</v>
       </c>
     </row>
   </sheetData>
